--- a/02_Dataset_EDA_Feature_UMAP_Mahalanobis/"distance" from new FeCrNiCoV data
to corrosion dataset.xlsx
+++ b/02_Dataset_EDA_Feature_UMAP_Mahalanobis/"distance" from new FeCrNiCoV data
to corrosion dataset.xlsx
@@ -661,7 +661,7 @@
         <v>-6.271298853023574</v>
       </c>
       <c r="X2" t="n">
-        <v>2.111357319910796</v>
+        <v>2.111357319910797</v>
       </c>
       <c r="Y2" t="n">
         <v>0.1156826189583638</v>
@@ -673,10 +673,10 @@
         <v>1.854883648133144</v>
       </c>
       <c r="AB2" t="n">
-        <v>14.22472197932585</v>
+        <v>14.22472193853854</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0008149685864796696</v>
+        <v>0.0008149686030999304</v>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
@@ -684,10 +684,10 @@
         </is>
       </c>
       <c r="AE2" t="n">
-        <v>0.7942382097244263</v>
+        <v>-1.826210498809814</v>
       </c>
       <c r="AF2" t="n">
-        <v>10.85530376434326</v>
+        <v>5.927961349487305</v>
       </c>
     </row>
     <row r="3">
@@ -773,10 +773,10 @@
         <v>1.86699756583838</v>
       </c>
       <c r="AB3" t="n">
-        <v>14.07362746066933</v>
+        <v>14.07362742069533</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.0008789225898299113</v>
+        <v>0.0008789226073969703</v>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
@@ -784,10 +784,10 @@
         </is>
       </c>
       <c r="AE3" t="n">
-        <v>0.9412891268730164</v>
+        <v>-1.655597805976868</v>
       </c>
       <c r="AF3" t="n">
-        <v>10.83281517028809</v>
+        <v>5.976351737976074</v>
       </c>
     </row>
     <row r="4">
@@ -849,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.01049891504989096</v>
+        <v>0.01049891504989097</v>
       </c>
       <c r="U4" t="n">
         <v>1916.090626733144</v>
@@ -870,13 +870,13 @@
         <v>8.103673917714687</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.860835719820995</v>
+        <v>1.860835719820994</v>
       </c>
       <c r="AB4" t="n">
-        <v>13.69858844229543</v>
+        <v>13.69858840814431</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.001060203698262763</v>
+        <v>0.001060203716366281</v>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
@@ -884,10 +884,10 @@
         </is>
       </c>
       <c r="AE4" t="n">
-        <v>0.9465992450714111</v>
+        <v>-1.573946118354797</v>
       </c>
       <c r="AF4" t="n">
-        <v>10.7122163772583</v>
+        <v>5.944216728210449</v>
       </c>
     </row>
     <row r="5">
@@ -967,16 +967,16 @@
         <v>0.1165478370541643</v>
       </c>
       <c r="Z5" t="n">
-        <v>8.021515930217276</v>
+        <v>8.021515930217278</v>
       </c>
       <c r="AA5" t="n">
         <v>1.855466976740344</v>
       </c>
       <c r="AB5" t="n">
-        <v>15.97939219715447</v>
+        <v>15.97939216285558</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.0003389370711717188</v>
+        <v>0.0003389370769842914</v>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
@@ -984,10 +984,10 @@
         </is>
       </c>
       <c r="AE5" t="n">
-        <v>1.180794239044189</v>
+        <v>-1.334580421447754</v>
       </c>
       <c r="AF5" t="n">
-        <v>10.61296558380127</v>
+        <v>6.08090877532959</v>
       </c>
     </row>
     <row r="6">
@@ -1061,22 +1061,22 @@
         <v>-7.047384736419096</v>
       </c>
       <c r="X6" t="n">
-        <v>3.152087504220491</v>
+        <v>3.152087504220492</v>
       </c>
       <c r="Y6" t="n">
         <v>0.1161926678246368</v>
       </c>
       <c r="Z6" t="n">
-        <v>7.958413700411958</v>
+        <v>7.958413700411956</v>
       </c>
       <c r="AA6" t="n">
         <v>1.846723059137253</v>
       </c>
       <c r="AB6" t="n">
-        <v>22.53156807798775</v>
+        <v>22.53156804392996</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.280360176159068e-05</v>
+        <v>1.280360197963848e-05</v>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="AE6" t="n">
-        <v>1.292388796806335</v>
+        <v>-1.299319624900818</v>
       </c>
       <c r="AF6" t="n">
-        <v>10.47332382202148</v>
+        <v>6.279312133789062</v>
       </c>
     </row>
     <row r="7">
@@ -1149,34 +1149,34 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.006842825225855351</v>
+        <v>0.006842825225855346</v>
       </c>
       <c r="U7" t="n">
-        <v>1857.789691124598</v>
+        <v>1857.789691124599</v>
       </c>
       <c r="V7" t="n">
-        <v>194.3177838840968</v>
+        <v>194.3177838840969</v>
       </c>
       <c r="W7" t="n">
-        <v>-5.614142960297699</v>
+        <v>-5.614142960297702</v>
       </c>
       <c r="X7" t="n">
-        <v>1.937899557480048</v>
+        <v>1.937899557480049</v>
       </c>
       <c r="Y7" t="n">
         <v>0.107669417748325</v>
       </c>
       <c r="Z7" t="n">
-        <v>8.67016950614164</v>
+        <v>8.670169506141644</v>
       </c>
       <c r="AA7" t="n">
         <v>1.750890315651342</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.931101996893682</v>
+        <v>9.93110196454591</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.006974106928153256</v>
+        <v>0.006974107040951694</v>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
@@ -1184,10 +1184,10 @@
         </is>
       </c>
       <c r="AE7" t="n">
-        <v>0.1739802211523056</v>
+        <v>-2.395350694656372</v>
       </c>
       <c r="AF7" t="n">
-        <v>10.71312046051025</v>
+        <v>5.996040344238281</v>
       </c>
     </row>
     <row r="8">
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.007710236189675353</v>
+        <v>0.007710236189675343</v>
       </c>
       <c r="U8" t="n">
         <v>1870.760523351667</v>
@@ -1258,10 +1258,10 @@
         <v>199.1305171658607</v>
       </c>
       <c r="W8" t="n">
-        <v>-5.867117265857989</v>
+        <v>-5.867117265857988</v>
       </c>
       <c r="X8" t="n">
-        <v>2.123633445264107</v>
+        <v>2.123633445264106</v>
       </c>
       <c r="Y8" t="n">
         <v>0.1101136944012719</v>
@@ -1273,10 +1273,10 @@
         <v>1.783668816170993</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.740072959301532</v>
+        <v>9.740072924273413</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.00767308537131528</v>
+        <v>0.007673085505702115</v>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
@@ -1284,10 +1284,10 @@
         </is>
       </c>
       <c r="AE8" t="n">
-        <v>0.5512440800666809</v>
+        <v>-2.03663444519043</v>
       </c>
       <c r="AF8" t="n">
-        <v>10.80471706390381</v>
+        <v>6.018982887268066</v>
       </c>
     </row>
     <row r="9">
@@ -1367,16 +1367,16 @@
         <v>0.1120245704843556</v>
       </c>
       <c r="Z9" t="n">
-        <v>8.396325744972186</v>
+        <v>8.396325744972188</v>
       </c>
       <c r="AA9" t="n">
         <v>1.810259609945069</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.503543296592893</v>
+        <v>9.503543263160198</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.008636381011738803</v>
+        <v>0.008636381156107542</v>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
@@ -1384,10 +1384,10 @@
         </is>
       </c>
       <c r="AE9" t="n">
-        <v>0.7276999950408936</v>
+        <v>-1.856128573417664</v>
       </c>
       <c r="AF9" t="n">
-        <v>10.68330383300781</v>
+        <v>6.033317565917969</v>
       </c>
     </row>
     <row r="10">
@@ -1458,25 +1458,25 @@
         <v>204.2175852139688</v>
       </c>
       <c r="W10" t="n">
-        <v>-6.446623242846038</v>
+        <v>-6.446623242846035</v>
       </c>
       <c r="X10" t="n">
-        <v>2.695215082590742</v>
+        <v>2.695215082590741</v>
       </c>
       <c r="Y10" t="n">
         <v>0.1129461844622978</v>
       </c>
       <c r="Z10" t="n">
-        <v>8.275277740967285</v>
+        <v>8.275277740967283</v>
       </c>
       <c r="AA10" t="n">
         <v>1.821423299585024</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.659157651331526</v>
+        <v>9.659157619879242</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.007989885692187837</v>
+        <v>0.007989885817837883</v>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="AE10" t="n">
-        <v>0.8232932686805725</v>
+        <v>-1.660050988197327</v>
       </c>
       <c r="AF10" t="n">
-        <v>10.57826900482178</v>
+        <v>6.128454208374023</v>
       </c>
     </row>
     <row r="11">
@@ -1549,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0.01316040153308274</v>
+        <v>0.01316040153308272</v>
       </c>
       <c r="U11" t="n">
         <v>1902.325520402011</v>
@@ -1573,10 +1573,10 @@
         <v>1.835044455810978</v>
       </c>
       <c r="AB11" t="n">
-        <v>11.72097767737312</v>
+        <v>11.72097765120547</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.002849850225078443</v>
+        <v>0.002849850262365394</v>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
@@ -1584,10 +1584,10 @@
         </is>
       </c>
       <c r="AE11" t="n">
-        <v>1.169508576393127</v>
+        <v>-1.462382316589355</v>
       </c>
       <c r="AF11" t="n">
-        <v>10.4775333404541</v>
+        <v>6.145523071289062</v>
       </c>
     </row>
     <row r="12">
@@ -1655,10 +1655,10 @@
         <v>1908.03799361034</v>
       </c>
       <c r="V12" t="n">
-        <v>205.8132368935489</v>
+        <v>205.813236893549</v>
       </c>
       <c r="W12" t="n">
-        <v>-7.253456385052128</v>
+        <v>-7.253456385052127</v>
       </c>
       <c r="X12" t="n">
         <v>3.349368283476078</v>
@@ -1670,13 +1670,13 @@
         <v>8.056311680113808</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.845065614118695</v>
+        <v>1.845065614118694</v>
       </c>
       <c r="AB12" t="n">
-        <v>17.37872545078793</v>
+        <v>17.37872542268221</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.0001683672882378806</v>
+        <v>0.0001683672906038769</v>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
@@ -1684,10 +1684,10 @@
         </is>
       </c>
       <c r="AE12" t="n">
-        <v>1.363078832626343</v>
+        <v>-1.23288893699646</v>
       </c>
       <c r="AF12" t="n">
-        <v>10.29900932312012</v>
+        <v>6.372019290924072</v>
       </c>
     </row>
     <row r="13">
@@ -1758,7 +1758,7 @@
         <v>206.7304620179058</v>
       </c>
       <c r="W13" t="n">
-        <v>-7.975947063315022</v>
+        <v>-7.97594706331502</v>
       </c>
       <c r="X13" t="n">
         <v>3.758173114708101</v>
@@ -1767,16 +1767,16 @@
         <v>0.1158984378599376</v>
       </c>
       <c r="Z13" t="n">
-        <v>7.930006739875209</v>
+        <v>7.930006739875208</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.869517598110251</v>
+        <v>1.86951759811025</v>
       </c>
       <c r="AB13" t="n">
-        <v>30.04773443677039</v>
+        <v>30.04773441044285</v>
       </c>
       <c r="AC13" t="n">
-        <v>2.986877216670791e-07</v>
+        <v>2.98687725663882e-07</v>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
@@ -1784,10 +1784,10 @@
         </is>
       </c>
       <c r="AE13" t="n">
-        <v>1.578505039215088</v>
+        <v>-1.06463360786438</v>
       </c>
       <c r="AF13" t="n">
-        <v>10.10870933532715</v>
+        <v>6.705539703369141</v>
       </c>
     </row>
     <row r="14">
@@ -1849,10 +1849,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0.005606114639837776</v>
+        <v>0.005606114639837781</v>
       </c>
       <c r="U14" t="n">
-        <v>1818.578263959325</v>
+        <v>1818.578263959326</v>
       </c>
       <c r="V14" t="n">
         <v>168.3561060540251</v>
@@ -1873,10 +1873,10 @@
         <v>1.561750253790709</v>
       </c>
       <c r="AB14" t="n">
-        <v>8.540019673373129</v>
+        <v>8.540019651308192</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.01398164561959625</v>
+        <v>0.01398164577384831</v>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
@@ -1884,10 +1884,10 @@
         </is>
       </c>
       <c r="AE14" t="n">
-        <v>-1.121974587440491</v>
+        <v>-3.905462265014648</v>
       </c>
       <c r="AF14" t="n">
-        <v>10.82306957244873</v>
+        <v>5.576428413391113</v>
       </c>
     </row>
     <row r="15">
@@ -1958,25 +1958,25 @@
         <v>178.1069290323834</v>
       </c>
       <c r="W15" t="n">
-        <v>-4.97712392795148</v>
+        <v>-4.977123927951482</v>
       </c>
       <c r="X15" t="n">
         <v>1.914281381179299</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.09932146237195351</v>
+        <v>0.09932146237195352</v>
       </c>
       <c r="Z15" t="n">
-        <v>8.849914302729818</v>
+        <v>8.84991430272982</v>
       </c>
       <c r="AA15" t="n">
         <v>1.638625076837699</v>
       </c>
       <c r="AB15" t="n">
-        <v>7.477603299372164</v>
+        <v>7.477603272665036</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.02378258593102667</v>
+        <v>0.02378258624860896</v>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
@@ -1984,10 +1984,10 @@
         </is>
       </c>
       <c r="AE15" t="n">
-        <v>-0.3914549648761749</v>
+        <v>-3.10212254524231</v>
       </c>
       <c r="AF15" t="n">
-        <v>10.67812347412109</v>
+        <v>5.96085786819458</v>
       </c>
     </row>
     <row r="16">
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0.007998684130288676</v>
+        <v>0.007998684130288678</v>
       </c>
       <c r="U16" t="n">
         <v>1847.320697703437</v>
@@ -2058,7 +2058,7 @@
         <v>185.0846877967935</v>
       </c>
       <c r="W16" t="n">
-        <v>-5.375273100435932</v>
+        <v>-5.375273100435933</v>
       </c>
       <c r="X16" t="n">
         <v>2.139010897796586</v>
@@ -2073,10 +2073,10 @@
         <v>1.692022026540553</v>
       </c>
       <c r="AB16" t="n">
-        <v>6.825124028627464</v>
+        <v>6.82512400205907</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.03295665669488623</v>
+        <v>0.03295665713268903</v>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
@@ -2084,10 +2084,10 @@
         </is>
       </c>
       <c r="AE16" t="n">
-        <v>0.068858802318573</v>
+        <v>-2.583569526672363</v>
       </c>
       <c r="AF16" t="n">
-        <v>10.58847236633301</v>
+        <v>6.061807155609131</v>
       </c>
     </row>
     <row r="17">
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0.00991035522452558</v>
+        <v>0.009910355224525562</v>
       </c>
       <c r="U17" t="n">
         <v>1862.519712760652</v>
@@ -2158,7 +2158,7 @@
         <v>191.5692950747122</v>
       </c>
       <c r="W17" t="n">
-        <v>-5.868722452599632</v>
+        <v>-5.868722452599634</v>
       </c>
       <c r="X17" t="n">
         <v>2.462800168495763</v>
@@ -2170,13 +2170,13 @@
         <v>8.53134573047033</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.743724699764246</v>
+        <v>1.743724699764247</v>
       </c>
       <c r="AB17" t="n">
-        <v>6.574103409988492</v>
+        <v>6.574103382770994</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.0373638468070655</v>
+        <v>0.03736384731554065</v>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
@@ -2184,10 +2184,10 @@
         </is>
       </c>
       <c r="AE17" t="n">
-        <v>0.369820773601532</v>
+        <v>-2.246909618377686</v>
       </c>
       <c r="AF17" t="n">
-        <v>10.55974292755127</v>
+        <v>6.132374286651611</v>
       </c>
     </row>
     <row r="18">
@@ -2258,7 +2258,7 @@
         <v>194.3943070618537</v>
       </c>
       <c r="W18" t="n">
-        <v>-6.178137385674441</v>
+        <v>-6.178137385674443</v>
       </c>
       <c r="X18" t="n">
         <v>2.700707230990515</v>
@@ -2267,16 +2267,16 @@
         <v>0.1081036941567561</v>
       </c>
       <c r="Z18" t="n">
-        <v>8.43029268567312</v>
+        <v>8.430292685673122</v>
       </c>
       <c r="AA18" t="n">
         <v>1.76729345111992</v>
       </c>
       <c r="AB18" t="n">
-        <v>6.819348143202943</v>
+        <v>6.819348119072848</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.03305197119657377</v>
+        <v>0.03305197159534734</v>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
@@ -2284,10 +2284,10 @@
         </is>
       </c>
       <c r="AE18" t="n">
-        <v>0.6982488632202148</v>
+        <v>-1.955901265144348</v>
       </c>
       <c r="AF18" t="n">
-        <v>10.36328220367432</v>
+        <v>6.318672180175781</v>
       </c>
     </row>
     <row r="19">
@@ -2349,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0.01394268369701948</v>
+        <v>0.01394268369701949</v>
       </c>
       <c r="U19" t="n">
         <v>1884.717007471835</v>
@@ -2367,16 +2367,16 @@
         <v>0.1106082616356001</v>
       </c>
       <c r="Z19" t="n">
-        <v>8.262184722714835</v>
+        <v>8.262184722714837</v>
       </c>
       <c r="AA19" t="n">
         <v>1.806421150658787</v>
       </c>
       <c r="AB19" t="n">
-        <v>9.429218589417554</v>
+        <v>9.429218563977182</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.008963367417913481</v>
+        <v>0.008963367531929167</v>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
@@ -2384,10 +2384,10 @@
         </is>
       </c>
       <c r="AE19" t="n">
-        <v>0.9806904792785645</v>
+        <v>-1.50102686882019</v>
       </c>
       <c r="AF19" t="n">
-        <v>10.14918422698975</v>
+        <v>6.415609836578369</v>
       </c>
     </row>
     <row r="20">
@@ -2458,10 +2458,10 @@
         <v>200.3466927595986</v>
       </c>
       <c r="W20" t="n">
-        <v>-7.416595367999556</v>
+        <v>-7.416595367999558</v>
       </c>
       <c r="X20" t="n">
-        <v>3.504752859306901</v>
+        <v>3.504752859306902</v>
       </c>
       <c r="Y20" t="n">
         <v>0.1122998910665736</v>
@@ -2473,10 +2473,10 @@
         <v>1.835182866771414</v>
       </c>
       <c r="AB20" t="n">
-        <v>15.14641184405022</v>
+        <v>15.14641182224884</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.0005140418261304625</v>
+        <v>0.0005140418317338691</v>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
@@ -2484,10 +2484,10 @@
         </is>
       </c>
       <c r="AE20" t="n">
-        <v>1.364409208297729</v>
+        <v>-1.246353626251221</v>
       </c>
       <c r="AF20" t="n">
-        <v>10.04364490509033</v>
+        <v>6.690250873565674</v>
       </c>
     </row>
     <row r="21">
@@ -2558,13 +2558,13 @@
         <v>202.8634158510409</v>
       </c>
       <c r="W21" t="n">
-        <v>-8.258354018609532</v>
+        <v>-8.258354018609531</v>
       </c>
       <c r="X21" t="n">
         <v>3.932584226342296</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.1145360131513713</v>
+        <v>0.1145360131513712</v>
       </c>
       <c r="Z21" t="n">
         <v>7.991016495067599</v>
@@ -2573,10 +2573,10 @@
         <v>1.87334037985938</v>
       </c>
       <c r="AB21" t="n">
-        <v>28.48756635245832</v>
+        <v>28.48756633026337</v>
       </c>
       <c r="AC21" t="n">
-        <v>6.516337432982411e-07</v>
+        <v>6.516337505146907e-07</v>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
@@ -2584,10 +2584,10 @@
         </is>
       </c>
       <c r="AE21" t="n">
-        <v>1.728413701057434</v>
+        <v>-0.9912935495376587</v>
       </c>
       <c r="AF21" t="n">
-        <v>9.916675567626953</v>
+        <v>6.989710807800293</v>
       </c>
     </row>
     <row r="22">
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0.02132280954649756</v>
+        <v>0.02132280954649748</v>
       </c>
       <c r="U22" t="n">
         <v>1921.130125222988</v>
@@ -2658,22 +2658,22 @@
         <v>206.2241599538678</v>
       </c>
       <c r="W22" t="n">
-        <v>-9.36903711750807</v>
+        <v>-9.369037117508064</v>
       </c>
       <c r="X22" t="n">
-        <v>4.357480023472857</v>
+        <v>4.357480023472855</v>
       </c>
       <c r="Y22" t="n">
         <v>0.1175264069897883</v>
       </c>
       <c r="Z22" t="n">
-        <v>7.801207389430619</v>
+        <v>7.801207389430617</v>
       </c>
       <c r="AA22" t="n">
-        <v>1.927101311134162</v>
+        <v>1.927101311134161</v>
       </c>
       <c r="AB22" t="n">
-        <v>53.82731873525897</v>
+        <v>53.82731871306454</v>
       </c>
       <c r="AC22" t="n">
         <v>2.049027614248189e-12</v>
@@ -2684,10 +2684,10 @@
         </is>
       </c>
       <c r="AE22" t="n">
-        <v>2.00416898727417</v>
+        <v>-0.748228132724762</v>
       </c>
       <c r="AF22" t="n">
-        <v>9.63918399810791</v>
+        <v>7.332738399505615</v>
       </c>
     </row>
     <row r="23">
@@ -2773,10 +2773,10 @@
         <v>1.462526570850697</v>
       </c>
       <c r="AB23" t="n">
-        <v>8.688347482712944</v>
+        <v>8.688347462082655</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.01298223049764302</v>
+        <v>0.01298223063155657</v>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
@@ -2784,10 +2784,10 @@
         </is>
       </c>
       <c r="AE23" t="n">
-        <v>-1.036103844642639</v>
+        <v>-3.526820421218872</v>
       </c>
       <c r="AF23" t="n">
-        <v>10.2799825668335</v>
+        <v>6.001575469970703</v>
       </c>
     </row>
     <row r="24">
@@ -2858,25 +2858,25 @@
         <v>163.0853992397982</v>
       </c>
       <c r="W24" t="n">
-        <v>-4.463667374112368</v>
+        <v>-4.463667374112369</v>
       </c>
       <c r="X24" t="n">
-        <v>1.87557423175787</v>
+        <v>1.875574231757871</v>
       </c>
       <c r="Y24" t="n">
         <v>0.09171317174128543</v>
       </c>
       <c r="Z24" t="n">
-        <v>8.947225319860513</v>
+        <v>8.947225319860511</v>
       </c>
       <c r="AA24" t="n">
         <v>1.541251999619234</v>
       </c>
       <c r="AB24" t="n">
-        <v>6.977422652343221</v>
+        <v>6.977422635574912</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.03054020318390793</v>
+        <v>0.03054020343996167</v>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
@@ -2884,10 +2884,10 @@
         </is>
       </c>
       <c r="AE24" t="n">
-        <v>-0.6898924112319946</v>
+        <v>-3.363183975219727</v>
       </c>
       <c r="AF24" t="n">
-        <v>10.48149013519287</v>
+        <v>5.98909330368042</v>
       </c>
     </row>
     <row r="25">
@@ -2964,7 +2964,7 @@
         <v>2.130049961671903</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.095591127436886</v>
+        <v>0.09559112743688601</v>
       </c>
       <c r="Z25" t="n">
         <v>8.812242166582951</v>
@@ -2973,10 +2973,10 @@
         <v>1.599506567855235</v>
       </c>
       <c r="AB25" t="n">
-        <v>5.746287116123836</v>
+        <v>5.746287099568542</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.05652097006695667</v>
+        <v>0.05652097053481731</v>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
@@ -2984,10 +2984,10 @@
         </is>
       </c>
       <c r="AE25" t="n">
-        <v>-0.3630103170871735</v>
+        <v>-2.983209133148193</v>
       </c>
       <c r="AF25" t="n">
-        <v>10.41205883026123</v>
+        <v>6.022379398345947</v>
       </c>
     </row>
     <row r="26">
@@ -3049,34 +3049,34 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0.01002327231053389</v>
+        <v>0.01002327231053391</v>
       </c>
       <c r="U26" t="n">
-        <v>1842.372971012489</v>
+        <v>1842.372971012488</v>
       </c>
       <c r="V26" t="n">
         <v>177.2699889808056</v>
       </c>
       <c r="W26" t="n">
-        <v>-5.399374730227286</v>
+        <v>-5.399374730227284</v>
       </c>
       <c r="X26" t="n">
         <v>2.433698483509787</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.09934216885025567</v>
+        <v>0.09934216885025565</v>
       </c>
       <c r="Z26" t="n">
-        <v>8.660208966637221</v>
+        <v>8.660208966637217</v>
       </c>
       <c r="AA26" t="n">
         <v>1.655542093125456</v>
       </c>
       <c r="AB26" t="n">
-        <v>5.113730006016541</v>
+        <v>5.113729986973637</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.07754747085278735</v>
+        <v>0.07754747159115183</v>
       </c>
       <c r="AD26" t="inlineStr">
         <is>
@@ -3084,10 +3084,10 @@
         </is>
       </c>
       <c r="AE26" t="n">
-        <v>0.08910465985536575</v>
+        <v>-2.563595294952393</v>
       </c>
       <c r="AF26" t="n">
-        <v>10.34167861938477</v>
+        <v>6.233436107635498</v>
       </c>
     </row>
     <row r="27">
@@ -3149,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0.0121507430509626</v>
+        <v>0.01215074305096257</v>
       </c>
       <c r="U27" t="n">
         <v>1857.083503674675</v>
@@ -3167,16 +3167,16 @@
         <v>0.1031558043979282</v>
       </c>
       <c r="Z27" t="n">
-        <v>8.490860210984829</v>
+        <v>8.490860210984831</v>
       </c>
       <c r="AA27" t="n">
         <v>1.711073414995902</v>
       </c>
       <c r="AB27" t="n">
-        <v>5.654957720713899</v>
+        <v>5.654957704954214</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.05916182101912404</v>
+        <v>0.0591618214853098</v>
       </c>
       <c r="AD27" t="inlineStr">
         <is>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="AE27" t="n">
-        <v>0.5532075166702271</v>
+        <v>-2.093513965606689</v>
       </c>
       <c r="AF27" t="n">
-        <v>10.07450103759766</v>
+        <v>6.506091117858887</v>
       </c>
     </row>
     <row r="28">
@@ -3258,25 +3258,25 @@
         <v>189.3599180710088</v>
       </c>
       <c r="W28" t="n">
-        <v>-6.611892994554885</v>
+        <v>-6.611892994554888</v>
       </c>
       <c r="X28" t="n">
-        <v>3.144570772142394</v>
+        <v>3.144570772142395</v>
       </c>
       <c r="Y28" t="n">
         <v>0.1062935803509471</v>
       </c>
       <c r="Z28" t="n">
-        <v>8.35808529879486</v>
+        <v>8.358085298794862</v>
       </c>
       <c r="AA28" t="n">
         <v>1.75956979738066</v>
       </c>
       <c r="AB28" t="n">
-        <v>8.137445032165402</v>
+        <v>8.137445017418868</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.0170992185374399</v>
+        <v>0.01709921866351694</v>
       </c>
       <c r="AD28" t="inlineStr">
         <is>
@@ -3284,10 +3284,10 @@
         </is>
       </c>
       <c r="AE28" t="n">
-        <v>0.9488181471824646</v>
+        <v>-1.685366272926331</v>
       </c>
       <c r="AF28" t="n">
-        <v>9.941117286682129</v>
+        <v>6.630870819091797</v>
       </c>
     </row>
     <row r="29">
@@ -3358,25 +3358,25 @@
         <v>194.2879178623252</v>
       </c>
       <c r="W29" t="n">
-        <v>-7.499450700016689</v>
+        <v>-7.499450700016688</v>
       </c>
       <c r="X29" t="n">
-        <v>3.600336999345562</v>
+        <v>3.600336999345563</v>
       </c>
       <c r="Y29" t="n">
         <v>0.1096762510355988</v>
       </c>
       <c r="Z29" t="n">
-        <v>8.194409991601908</v>
+        <v>8.194409991601907</v>
       </c>
       <c r="AA29" t="n">
         <v>1.816323965305568</v>
       </c>
       <c r="AB29" t="n">
-        <v>15.51982408452259</v>
+        <v>15.51982406789057</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.000426494092491847</v>
+        <v>0.0004264940960385655</v>
       </c>
       <c r="AD29" t="inlineStr">
         <is>
@@ -3384,10 +3384,10 @@
         </is>
       </c>
       <c r="AE29" t="n">
-        <v>1.443422198295593</v>
+        <v>-1.27141797542572</v>
       </c>
       <c r="AF29" t="n">
-        <v>9.738131523132324</v>
+        <v>6.983670234680176</v>
       </c>
     </row>
     <row r="30">
@@ -3458,7 +3458,7 @@
         <v>200.0440324943598</v>
       </c>
       <c r="W30" t="n">
-        <v>-8.548720746551371</v>
+        <v>-8.548720746551373</v>
       </c>
       <c r="X30" t="n">
         <v>4.045895082346354</v>
@@ -3467,16 +3467,16 @@
         <v>0.1136031273724941</v>
       </c>
       <c r="Z30" t="n">
-        <v>7.994008236918265</v>
+        <v>7.994008236918264</v>
       </c>
       <c r="AA30" t="n">
         <v>1.880414202539238</v>
       </c>
       <c r="AB30" t="n">
-        <v>31.29133264180406</v>
+        <v>31.2913326268391</v>
       </c>
       <c r="AC30" t="n">
-        <v>1.603885831924501e-07</v>
+        <v>1.603885844136954e-07</v>
       </c>
       <c r="AD30" t="inlineStr">
         <is>
@@ -3484,10 +3484,10 @@
         </is>
       </c>
       <c r="AE30" t="n">
-        <v>1.976967453956604</v>
+        <v>-0.9073925018310547</v>
       </c>
       <c r="AF30" t="n">
-        <v>9.706211090087891</v>
+        <v>7.305084705352783</v>
       </c>
     </row>
     <row r="31">
@@ -3549,7 +3549,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0.02234030920231087</v>
+        <v>0.02234030920231088</v>
       </c>
       <c r="U31" t="n">
         <v>1915.960217012119</v>
@@ -3573,7 +3573,7 @@
         <v>1.93635772262265</v>
       </c>
       <c r="AB31" t="n">
-        <v>61.71031286356239</v>
+        <v>61.71031284829672</v>
       </c>
       <c r="AC31" t="n">
         <v>3.97459842815806e-14</v>
@@ -3584,10 +3584,10 @@
         </is>
       </c>
       <c r="AE31" t="n">
-        <v>2.189785242080688</v>
+        <v>-0.6105957627296448</v>
       </c>
       <c r="AF31" t="n">
-        <v>9.455961227416992</v>
+        <v>7.531809329986572</v>
       </c>
     </row>
     <row r="32">
@@ -3667,16 +3667,16 @@
         <v>0.07929342216726326</v>
       </c>
       <c r="Z32" t="n">
-        <v>9.123059177693214</v>
+        <v>9.123059177693213</v>
       </c>
       <c r="AA32" t="n">
         <v>1.380621884400646</v>
       </c>
       <c r="AB32" t="n">
-        <v>9.38129253429967</v>
+        <v>9.381292521703809</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.009180751020814171</v>
+        <v>0.00918075107863392</v>
       </c>
       <c r="AD32" t="inlineStr">
         <is>
@@ -3684,10 +3684,10 @@
         </is>
       </c>
       <c r="AE32" t="n">
-        <v>-1.254396557807922</v>
+        <v>-3.295583724975586</v>
       </c>
       <c r="AF32" t="n">
-        <v>10.12262439727783</v>
+        <v>6.241862773895264</v>
       </c>
     </row>
     <row r="33">
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0.007232515461184555</v>
+        <v>0.007232515461184539</v>
       </c>
       <c r="U33" t="n">
         <v>1807.075101769982</v>
@@ -3758,25 +3758,25 @@
         <v>148.3855837262215</v>
       </c>
       <c r="W33" t="n">
-        <v>-4.104196058986291</v>
+        <v>-4.104196058986292</v>
       </c>
       <c r="X33" t="n">
-        <v>1.893721657192219</v>
+        <v>1.89372165719222</v>
       </c>
       <c r="Y33" t="n">
         <v>0.08458864201437863</v>
       </c>
       <c r="Z33" t="n">
-        <v>8.976601894533289</v>
+        <v>8.976601894533291</v>
       </c>
       <c r="AA33" t="n">
         <v>1.458855759405878</v>
       </c>
       <c r="AB33" t="n">
-        <v>7.081077520833502</v>
+        <v>7.081077511918225</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.02899770005999536</v>
+        <v>0.02899770018925663</v>
       </c>
       <c r="AD33" t="inlineStr">
         <is>
@@ -3784,10 +3784,10 @@
         </is>
       </c>
       <c r="AE33" t="n">
-        <v>-0.9905452132225037</v>
+        <v>-3.438368320465088</v>
       </c>
       <c r="AF33" t="n">
-        <v>10.17234134674072</v>
+        <v>6.157576560974121</v>
       </c>
     </row>
     <row r="34">
@@ -3849,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0.008605828672474735</v>
+        <v>0.008605828672474754</v>
       </c>
       <c r="U34" t="n">
         <v>1817.487709649119</v>
@@ -3858,7 +3858,7 @@
         <v>156.3584478113895</v>
       </c>
       <c r="W34" t="n">
-        <v>-4.536849753213491</v>
+        <v>-4.536849753213489</v>
       </c>
       <c r="X34" t="n">
         <v>2.128933800335837</v>
@@ -3867,16 +3867,16 @@
         <v>0.08877970234386724</v>
       </c>
       <c r="Z34" t="n">
-        <v>8.856019026166466</v>
+        <v>8.856019026166464</v>
       </c>
       <c r="AA34" t="n">
-        <v>1.51954926352038</v>
+        <v>1.519549263520379</v>
       </c>
       <c r="AB34" t="n">
-        <v>5.748065183593519</v>
+        <v>5.748065176295156</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.05647074334777324</v>
+        <v>0.05647074355384518</v>
       </c>
       <c r="AD34" t="inlineStr">
         <is>
@@ -3884,10 +3884,10 @@
         </is>
       </c>
       <c r="AE34" t="n">
-        <v>-0.6290381550788879</v>
+        <v>-3.237172842025757</v>
       </c>
       <c r="AF34" t="n">
-        <v>10.11235237121582</v>
+        <v>6.326303958892822</v>
       </c>
     </row>
     <row r="35">
@@ -3958,13 +3958,13 @@
         <v>164.0063235286174</v>
       </c>
       <c r="W35" t="n">
-        <v>-5.018933291525661</v>
+        <v>-5.018933291525662</v>
       </c>
       <c r="X35" t="n">
         <v>2.407808995713729</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.09282595544178016</v>
+        <v>0.09282595544178017</v>
       </c>
       <c r="Z35" t="n">
         <v>8.715119611231668</v>
@@ -3973,10 +3973,10 @@
         <v>1.577594998629744</v>
       </c>
       <c r="AB35" t="n">
-        <v>4.931839748114222</v>
+        <v>4.931839739499972</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.08493068089784428</v>
+        <v>0.08493068126365133</v>
       </c>
       <c r="AD35" t="inlineStr">
         <is>
@@ -3984,10 +3984,10 @@
         </is>
       </c>
       <c r="AE35" t="n">
-        <v>-0.1576910316944122</v>
+        <v>-2.818334102630615</v>
       </c>
       <c r="AF35" t="n">
-        <v>9.957984924316406</v>
+        <v>6.447525501251221</v>
       </c>
     </row>
     <row r="36">
@@ -4049,7 +4049,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0.01230405370336201</v>
+        <v>0.012304053703362</v>
       </c>
       <c r="U36" t="n">
         <v>1842.784974665828</v>
@@ -4058,25 +4058,25 @@
         <v>172.3796481356425</v>
       </c>
       <c r="W36" t="n">
-        <v>-5.638283745874879</v>
+        <v>-5.638283745874877</v>
       </c>
       <c r="X36" t="n">
-        <v>2.742104947225995</v>
+        <v>2.742104947225994</v>
       </c>
       <c r="Y36" t="n">
         <v>0.09737182311067256</v>
       </c>
       <c r="Z36" t="n">
-        <v>8.565031665175553</v>
+        <v>8.565031665175551</v>
       </c>
       <c r="AA36" t="n">
         <v>1.642908185162571</v>
       </c>
       <c r="AB36" t="n">
-        <v>5.302471745385041</v>
+        <v>5.302471735631371</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.0705639510889654</v>
+        <v>0.07056395143309424</v>
       </c>
       <c r="AD36" t="inlineStr">
         <is>
@@ -4084,10 +4084,10 @@
         </is>
       </c>
       <c r="AE36" t="n">
-        <v>0.2431037276983261</v>
+        <v>-2.354985237121582</v>
       </c>
       <c r="AF36" t="n">
-        <v>9.786837577819824</v>
+        <v>6.715003490447998</v>
       </c>
     </row>
     <row r="37">
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0.0146924480854489</v>
+        <v>0.01469244808544889</v>
       </c>
       <c r="U37" t="n">
         <v>1854.561268107208</v>
@@ -4158,10 +4158,10 @@
         <v>178.5666106502817</v>
       </c>
       <c r="W37" t="n">
-        <v>-6.359945988637913</v>
+        <v>-6.359945988637914</v>
       </c>
       <c r="X37" t="n">
-        <v>3.13729551107906</v>
+        <v>3.137295511079061</v>
       </c>
       <c r="Y37" t="n">
         <v>0.1011228801640802</v>
@@ -4173,10 +4173,10 @@
         <v>1.701199642985428</v>
       </c>
       <c r="AB37" t="n">
-        <v>8.039559961902084</v>
+        <v>8.039559952434692</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.01795691536834365</v>
+        <v>0.01795691545334621</v>
       </c>
       <c r="AD37" t="inlineStr">
         <is>
@@ -4184,10 +4184,10 @@
         </is>
       </c>
       <c r="AE37" t="n">
-        <v>0.8194911479949951</v>
+        <v>-1.755476593971252</v>
       </c>
       <c r="AF37" t="n">
-        <v>9.690367698669434</v>
+        <v>6.957754611968994</v>
       </c>
     </row>
     <row r="38">
@@ -4255,7 +4255,7 @@
         <v>1872.067925524716</v>
       </c>
       <c r="V38" t="n">
-        <v>186.5540617936105</v>
+        <v>186.5540617936104</v>
       </c>
       <c r="W38" t="n">
         <v>-7.246248283020125</v>
@@ -4267,16 +4267,16 @@
         <v>0.1057665398151225</v>
       </c>
       <c r="Z38" t="n">
-        <v>8.226857706546525</v>
+        <v>8.226857706546527</v>
       </c>
       <c r="AA38" t="n">
         <v>1.76865331408857</v>
       </c>
       <c r="AB38" t="n">
-        <v>15.2601751877263</v>
+        <v>15.26017517796946</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.0004856183192927244</v>
+        <v>0.0004856183216618293</v>
       </c>
       <c r="AD38" t="inlineStr">
         <is>
@@ -4284,10 +4284,10 @@
         </is>
       </c>
       <c r="AE38" t="n">
-        <v>1.268896579742432</v>
+        <v>-1.359985709190369</v>
       </c>
       <c r="AF38" t="n">
-        <v>9.599472045898438</v>
+        <v>7.119399070739746</v>
       </c>
     </row>
     <row r="39">
@@ -4349,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0.0204034169116834</v>
+        <v>0.02040341691168338</v>
       </c>
       <c r="U39" t="n">
         <v>1889.682944261102</v>
@@ -4358,7 +4358,7 @@
         <v>193.8519895500959</v>
       </c>
       <c r="W39" t="n">
-        <v>-8.535413313873867</v>
+        <v>-8.535413313873866</v>
       </c>
       <c r="X39" t="n">
         <v>4.057449977785367</v>
@@ -4367,16 +4367,16 @@
         <v>0.1107897469695056</v>
       </c>
       <c r="Z39" t="n">
-        <v>8.02703564043118</v>
+        <v>8.027035640431178</v>
       </c>
       <c r="AA39" t="n">
         <v>1.854103709551148</v>
       </c>
       <c r="AB39" t="n">
-        <v>34.71008517942768</v>
+        <v>34.71008516978976</v>
       </c>
       <c r="AC39" t="n">
-        <v>2.902690754424953e-08</v>
+        <v>2.902690776629413e-08</v>
       </c>
       <c r="AD39" t="inlineStr">
         <is>
@@ -4384,10 +4384,10 @@
         </is>
       </c>
       <c r="AE39" t="n">
-        <v>2.018471717834473</v>
+        <v>-0.8464444875717163</v>
       </c>
       <c r="AF39" t="n">
-        <v>9.605340003967285</v>
+        <v>7.36490535736084</v>
       </c>
     </row>
     <row r="40">
@@ -4449,7 +4449,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0.02287408820223039</v>
+        <v>0.0228740882022304</v>
       </c>
       <c r="U40" t="n">
         <v>1912.95414360032</v>
@@ -4458,22 +4458,22 @@
         <v>201.2742052269745</v>
       </c>
       <c r="W40" t="n">
-        <v>-9.703376507882048</v>
+        <v>-9.70337650788205</v>
       </c>
       <c r="X40" t="n">
-        <v>4.432880616201108</v>
+        <v>4.432880616201109</v>
       </c>
       <c r="Y40" t="n">
         <v>0.1155367071833451</v>
       </c>
       <c r="Z40" t="n">
-        <v>7.78300971526346</v>
+        <v>7.783009715263461</v>
       </c>
       <c r="AA40" t="n">
-        <v>1.927149426239511</v>
+        <v>1.92714942623951</v>
       </c>
       <c r="AB40" t="n">
-        <v>67.37676604096394</v>
+        <v>67.37676603454075</v>
       </c>
       <c r="AC40" t="n">
         <v>2.331468351712829e-15</v>
@@ -4484,10 +4484,10 @@
         </is>
       </c>
       <c r="AE40" t="n">
-        <v>2.270787000656128</v>
+        <v>-0.6077501773834229</v>
       </c>
       <c r="AF40" t="n">
-        <v>9.459650039672852</v>
+        <v>7.654106616973877</v>
       </c>
     </row>
     <row r="41">
@@ -4549,7 +4549,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0.005985722554952928</v>
+        <v>0.005985722554952947</v>
       </c>
       <c r="U41" t="n">
         <v>1789.105901200297</v>
@@ -4573,10 +4573,10 @@
         <v>1.316324609641298</v>
       </c>
       <c r="AB41" t="n">
-        <v>10.28146682688783</v>
+        <v>10.28146682300837</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.005853395179976295</v>
+        <v>0.005853395191330324</v>
       </c>
       <c r="AD41" t="inlineStr">
         <is>
@@ -4584,10 +4584,10 @@
         </is>
       </c>
       <c r="AE41" t="n">
-        <v>-1.919102549552917</v>
+        <v>-3.200131893157959</v>
       </c>
       <c r="AF41" t="n">
-        <v>10.02003192901611</v>
+        <v>5.506008148193359</v>
       </c>
     </row>
     <row r="42">
@@ -4649,7 +4649,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0.007110329218215433</v>
+        <v>0.007110329218215425</v>
       </c>
       <c r="U42" t="n">
         <v>1799.250473681775</v>
@@ -4658,7 +4658,7 @@
         <v>134.0924614145673</v>
       </c>
       <c r="W42" t="n">
-        <v>-3.727425762119624</v>
+        <v>-3.727425762119625</v>
       </c>
       <c r="X42" t="n">
         <v>1.79411551312567</v>
@@ -4667,16 +4667,16 @@
         <v>0.07770798014440843</v>
       </c>
       <c r="Z42" t="n">
-        <v>8.977317779911282</v>
+        <v>8.977317779911283</v>
       </c>
       <c r="AA42" t="n">
-        <v>1.380448262440933</v>
+        <v>1.380448262440932</v>
       </c>
       <c r="AB42" t="n">
-        <v>8.073417208557624</v>
+        <v>8.073417208441118</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.01765548808492379</v>
+        <v>0.01765548808595219</v>
       </c>
       <c r="AD42" t="inlineStr">
         <is>
@@ -4684,10 +4684,10 @@
         </is>
       </c>
       <c r="AE42" t="n">
-        <v>-1.097636103630066</v>
+        <v>-3.472674131393433</v>
       </c>
       <c r="AF42" t="n">
-        <v>9.849678039550781</v>
+        <v>6.410650253295898</v>
       </c>
     </row>
     <row r="43">
@@ -4758,7 +4758,7 @@
         <v>141.7838651296247</v>
       </c>
       <c r="W43" t="n">
-        <v>-4.138784153391219</v>
+        <v>-4.138784153391218</v>
       </c>
       <c r="X43" t="n">
         <v>2.041999223562375</v>
@@ -4773,10 +4773,10 @@
         <v>1.437625352181259</v>
       </c>
       <c r="AB43" t="n">
-        <v>6.572018143415295</v>
+        <v>6.572018141364481</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.03740282391334515</v>
+        <v>0.03740282395169825</v>
       </c>
       <c r="AD43" t="inlineStr">
         <is>
@@ -4784,10 +4784,10 @@
         </is>
       </c>
       <c r="AE43" t="n">
-        <v>-0.6707279086112976</v>
+        <v>-3.219001770019531</v>
       </c>
       <c r="AF43" t="n">
-        <v>9.746224403381348</v>
+        <v>6.554756164550781</v>
       </c>
     </row>
     <row r="44">
@@ -4852,13 +4852,13 @@
         <v>0.01027236935138879</v>
       </c>
       <c r="U44" t="n">
-        <v>1820.039738440431</v>
+        <v>1820.039738440432</v>
       </c>
       <c r="V44" t="n">
         <v>150.5424983548378</v>
       </c>
       <c r="W44" t="n">
-        <v>-4.604448383643676</v>
+        <v>-4.604448383643675</v>
       </c>
       <c r="X44" t="n">
         <v>2.307721894239452</v>
@@ -4873,10 +4873,10 @@
         <v>1.497675826014134</v>
       </c>
       <c r="AB44" t="n">
-        <v>5.524557106650253</v>
+        <v>5.524557104678455</v>
       </c>
       <c r="AC44" t="n">
-        <v>0.06314771886494241</v>
+        <v>0.06314771892719961</v>
       </c>
       <c r="AD44" t="inlineStr">
         <is>
@@ -4884,10 +4884,10 @@
         </is>
       </c>
       <c r="AE44" t="n">
-        <v>-0.2236518561840057</v>
+        <v>-2.847106218338013</v>
       </c>
       <c r="AF44" t="n">
-        <v>9.575396537780762</v>
+        <v>6.754755020141602</v>
       </c>
     </row>
     <row r="45">
@@ -4958,7 +4958,7 @@
         <v>158.6078760156398</v>
       </c>
       <c r="W45" t="n">
-        <v>-5.180514748106643</v>
+        <v>-5.180514748106642</v>
       </c>
       <c r="X45" t="n">
         <v>2.633986523217033</v>
@@ -4973,10 +4973,10 @@
         <v>1.558533015770604</v>
       </c>
       <c r="AB45" t="n">
-        <v>5.677035068283812</v>
+        <v>5.67703506519527</v>
       </c>
       <c r="AC45" t="n">
-        <v>0.05851234425245644</v>
+        <v>0.05851234434281538</v>
       </c>
       <c r="AD45" t="inlineStr">
         <is>
@@ -4984,10 +4984,10 @@
         </is>
       </c>
       <c r="AE45" t="n">
-        <v>0.2744259536266327</v>
+        <v>-2.420461177825928</v>
       </c>
       <c r="AF45" t="n">
-        <v>9.462006568908691</v>
+        <v>6.947429180145264</v>
       </c>
     </row>
     <row r="46">
@@ -5067,16 +5067,16 @@
         <v>0.09624216603254504</v>
       </c>
       <c r="Z46" t="n">
-        <v>8.425291436723281</v>
+        <v>8.425291436723283</v>
       </c>
       <c r="AA46" t="n">
         <v>1.641249905139774</v>
       </c>
       <c r="AB46" t="n">
-        <v>8.555270655713144</v>
+        <v>8.555270653247074</v>
       </c>
       <c r="AC46" t="n">
-        <v>0.01387543417625925</v>
+        <v>0.01387543419336823</v>
       </c>
       <c r="AD46" t="inlineStr">
         <is>
@@ -5084,10 +5084,10 @@
         </is>
       </c>
       <c r="AE46" t="n">
-        <v>0.8626003861427307</v>
+        <v>-1.910552263259888</v>
       </c>
       <c r="AF46" t="n">
-        <v>9.422769546508789</v>
+        <v>7.123561382293701</v>
       </c>
     </row>
     <row r="47">
@@ -5149,7 +5149,7 @@
         <v>0</v>
       </c>
       <c r="T47" t="n">
-        <v>0.01743629115340806</v>
+        <v>0.01743629115340805</v>
       </c>
       <c r="U47" t="n">
         <v>1860.800965761505</v>
@@ -5158,10 +5158,10 @@
         <v>177.2088662756244</v>
       </c>
       <c r="W47" t="n">
-        <v>-6.935138924654914</v>
+        <v>-6.935138924654915</v>
       </c>
       <c r="X47" t="n">
-        <v>3.443682539669017</v>
+        <v>3.443682539669018</v>
       </c>
       <c r="Y47" t="n">
         <v>0.1011569661869414</v>
@@ -5173,10 +5173,10 @@
         <v>1.714113191631074</v>
       </c>
       <c r="AB47" t="n">
-        <v>15.466257049378</v>
+        <v>15.46625704581758</v>
       </c>
       <c r="AC47" t="n">
-        <v>0.0004380714536573738</v>
+        <v>0.0004380714544373054</v>
       </c>
       <c r="AD47" t="inlineStr">
         <is>
@@ -5184,10 +5184,10 @@
         </is>
       </c>
       <c r="AE47" t="n">
-        <v>1.260595560073853</v>
+        <v>-1.486903667449951</v>
       </c>
       <c r="AF47" t="n">
-        <v>9.415755271911621</v>
+        <v>7.329180717468262</v>
       </c>
     </row>
     <row r="48">
@@ -5249,7 +5249,7 @@
         <v>0</v>
       </c>
       <c r="T48" t="n">
-        <v>0.02075494273154534</v>
+        <v>0.02075494273154538</v>
       </c>
       <c r="U48" t="n">
         <v>1883.934472518733</v>
@@ -5267,13 +5267,13 @@
         <v>0.1080532242687294</v>
       </c>
       <c r="Z48" t="n">
-        <v>8.0223019966172</v>
+        <v>8.022301996617198</v>
       </c>
       <c r="AA48" t="n">
         <v>1.820110306355468</v>
       </c>
       <c r="AB48" t="n">
-        <v>37.08622948590244</v>
+        <v>37.08622948056893</v>
       </c>
       <c r="AC48" t="n">
         <v>8.847642951614887e-09</v>
@@ -5284,10 +5284,10 @@
         </is>
       </c>
       <c r="AE48" t="n">
-        <v>1.96251368522644</v>
+        <v>-0.9581111073493958</v>
       </c>
       <c r="AF48" t="n">
-        <v>9.456903457641602</v>
+        <v>7.611342906951904</v>
       </c>
     </row>
     <row r="49">
@@ -5358,22 +5358,22 @@
         <v>198.2863400414355</v>
       </c>
       <c r="W49" t="n">
-        <v>-9.685545383428856</v>
+        <v>-9.685545383428858</v>
       </c>
       <c r="X49" t="n">
-        <v>4.367806736618213</v>
+        <v>4.367806736618214</v>
       </c>
       <c r="Y49" t="n">
         <v>0.1140930570564763</v>
       </c>
       <c r="Z49" t="n">
-        <v>7.780497813745045</v>
+        <v>7.780497813745046</v>
       </c>
       <c r="AA49" t="n">
         <v>1.914868691477184</v>
       </c>
       <c r="AB49" t="n">
-        <v>74.5293052785528</v>
+        <v>74.52930527105332</v>
       </c>
       <c r="AC49" t="n">
         <v>1.110223024625157e-16</v>
@@ -5384,10 +5384,10 @@
         </is>
       </c>
       <c r="AE49" t="n">
-        <v>2.182748079299927</v>
+        <v>-0.6822921633720398</v>
       </c>
       <c r="AF49" t="n">
-        <v>9.425067901611328</v>
+        <v>7.606175899505615</v>
       </c>
     </row>
     <row r="50">
@@ -5473,10 +5473,10 @@
         <v>1.276817161411238</v>
       </c>
       <c r="AB50" t="n">
-        <v>10.832954471101</v>
+        <v>10.83295447696636</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.004442769945096403</v>
+        <v>0.004442769932067159</v>
       </c>
       <c r="AD50" t="inlineStr">
         <is>
@@ -5484,10 +5484,10 @@
         </is>
       </c>
       <c r="AE50" t="n">
-        <v>-0.9861648082733154</v>
+        <v>-3.464904308319092</v>
       </c>
       <c r="AF50" t="n">
-        <v>9.714492797851562</v>
+        <v>6.644131660461426</v>
       </c>
     </row>
     <row r="51">
@@ -5549,34 +5549,34 @@
         <v>0</v>
       </c>
       <c r="T51" t="n">
-        <v>0.007128359451633699</v>
+        <v>0.007128359451633718</v>
       </c>
       <c r="U51" t="n">
-        <v>1796.818681683574</v>
+        <v>1796.818681683573</v>
       </c>
       <c r="V51" t="n">
         <v>122.5933166383642</v>
       </c>
       <c r="W51" t="n">
-        <v>-3.47076670610138</v>
+        <v>-3.470766706101379</v>
       </c>
       <c r="X51" t="n">
-        <v>1.689347065641761</v>
+        <v>1.68934706564176</v>
       </c>
       <c r="Y51" t="n">
         <v>0.0723061979511995</v>
       </c>
       <c r="Z51" t="n">
-        <v>8.908322494404786</v>
+        <v>8.908322494404782</v>
       </c>
       <c r="AA51" t="n">
         <v>1.323155177163384</v>
       </c>
       <c r="AB51" t="n">
-        <v>9.075693218165325</v>
+        <v>9.075693221535156</v>
       </c>
       <c r="AC51" t="n">
-        <v>0.01069641533481147</v>
+        <v>0.010696415316789</v>
       </c>
       <c r="AD51" t="inlineStr">
         <is>
@@ -5584,10 +5584,10 @@
         </is>
       </c>
       <c r="AE51" t="n">
-        <v>-0.7148141860961914</v>
+        <v>-3.20847487449646</v>
       </c>
       <c r="AF51" t="n">
-        <v>9.56373119354248</v>
+        <v>6.803773403167725</v>
       </c>
     </row>
     <row r="52">
@@ -5667,16 +5667,16 @@
         <v>0.07501018829817835</v>
       </c>
       <c r="Z52" t="n">
-        <v>8.804901937406054</v>
+        <v>8.804901937406056</v>
       </c>
       <c r="AA52" t="n">
         <v>1.357568245523672</v>
       </c>
       <c r="AB52" t="n">
-        <v>7.950381730567408</v>
+        <v>7.950381735496707</v>
       </c>
       <c r="AC52" t="n">
-        <v>0.01877571752001594</v>
+        <v>0.01877571747374029</v>
       </c>
       <c r="AD52" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         </is>
       </c>
       <c r="AE52" t="n">
-        <v>-0.5913845300674438</v>
+        <v>-3.15294885635376</v>
       </c>
       <c r="AF52" t="n">
-        <v>9.468429565429688</v>
+        <v>6.894915580749512</v>
       </c>
     </row>
     <row r="53">
@@ -5764,19 +5764,19 @@
         <v>2.141067640128211</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.07934200511986529</v>
+        <v>0.07934200511986528</v>
       </c>
       <c r="Z53" t="n">
-        <v>8.700864600145552</v>
+        <v>8.700864600145554</v>
       </c>
       <c r="AA53" t="n">
         <v>1.413398103016241</v>
       </c>
       <c r="AB53" t="n">
-        <v>6.848159243155817</v>
+        <v>6.84815924690226</v>
       </c>
       <c r="AC53" t="n">
-        <v>0.03257925243540094</v>
+        <v>0.03257925237437276</v>
       </c>
       <c r="AD53" t="inlineStr">
         <is>
@@ -5784,10 +5784,10 @@
         </is>
       </c>
       <c r="AE53" t="n">
-        <v>-0.1895971596240997</v>
+        <v>-2.862911224365234</v>
       </c>
       <c r="AF53" t="n">
-        <v>9.272700309753418</v>
+        <v>6.981451511383057</v>
       </c>
     </row>
     <row r="54">
@@ -5858,7 +5858,7 @@
         <v>146.4191650147858</v>
       </c>
       <c r="W54" t="n">
-        <v>-4.757179788436317</v>
+        <v>-4.757179788436318</v>
       </c>
       <c r="X54" t="n">
         <v>2.485238178044922</v>
@@ -5873,10 +5873,10 @@
         <v>1.481049154564836</v>
       </c>
       <c r="AB54" t="n">
-        <v>6.733067569606469</v>
+        <v>6.733067572807402</v>
       </c>
       <c r="AC54" t="n">
-        <v>0.03450904605563587</v>
+        <v>0.03450904600040527</v>
       </c>
       <c r="AD54" t="inlineStr">
         <is>
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="AE54" t="n">
-        <v>0.24224454164505</v>
+        <v>-2.416910409927368</v>
       </c>
       <c r="AF54" t="n">
-        <v>9.192235946655273</v>
+        <v>7.122231006622314</v>
       </c>
     </row>
     <row r="55">
@@ -5958,10 +5958,10 @@
         <v>155.9787304874811</v>
       </c>
       <c r="W55" t="n">
-        <v>-5.490348049078732</v>
+        <v>-5.49034804907873</v>
       </c>
       <c r="X55" t="n">
-        <v>2.84593573590252</v>
+        <v>2.845935735902519</v>
       </c>
       <c r="Y55" t="n">
         <v>0.08965051680342165</v>
@@ -5973,10 +5973,10 @@
         <v>1.553559684143321</v>
       </c>
       <c r="AB55" t="n">
-        <v>8.841398638305774</v>
+        <v>8.841398641332527</v>
       </c>
       <c r="AC55" t="n">
-        <v>0.0120258194575652</v>
+        <v>0.01202581943936565</v>
       </c>
       <c r="AD55" t="inlineStr">
         <is>
@@ -5984,10 +5984,10 @@
         </is>
       </c>
       <c r="AE55" t="n">
-        <v>0.6500933766365051</v>
+        <v>-2.066936254501343</v>
       </c>
       <c r="AF55" t="n">
-        <v>9.17800235748291</v>
+        <v>7.263638973236084</v>
       </c>
     </row>
     <row r="56">
@@ -6049,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>0.01755786066840239</v>
+        <v>0.01755786066840242</v>
       </c>
       <c r="U56" t="n">
         <v>1853.44487441358</v>
@@ -6058,25 +6058,25 @@
         <v>168.4388771926217</v>
       </c>
       <c r="W56" t="n">
-        <v>-6.580870574065615</v>
+        <v>-6.580870574065616</v>
       </c>
       <c r="X56" t="n">
         <v>3.290003139873237</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.09668168763662012</v>
+        <v>0.09668168763662011</v>
       </c>
       <c r="Z56" t="n">
-        <v>8.265080646042305</v>
+        <v>8.265080646042307</v>
       </c>
       <c r="AA56" t="n">
         <v>1.656063968330844</v>
       </c>
       <c r="AB56" t="n">
-        <v>16.4210242859209</v>
+        <v>16.42102428653704</v>
       </c>
       <c r="AC56" t="n">
-        <v>0.0002717814946613384</v>
+        <v>0.0002717814945776276</v>
       </c>
       <c r="AD56" t="inlineStr">
         <is>
@@ -6084,10 +6084,10 @@
         </is>
       </c>
       <c r="AE56" t="n">
-        <v>1.187963247299194</v>
+        <v>-1.648178219795227</v>
       </c>
       <c r="AF56" t="n">
-        <v>9.244243621826172</v>
+        <v>7.404623031616211</v>
       </c>
     </row>
     <row r="57">
@@ -6158,10 +6158,10 @@
         <v>182.160898661698</v>
       </c>
       <c r="W57" t="n">
-        <v>-7.928390226228704</v>
+        <v>-7.928390226228701</v>
       </c>
       <c r="X57" t="n">
-        <v>3.77223975743439</v>
+        <v>3.772239757434389</v>
       </c>
       <c r="Y57" t="n">
         <v>0.104529959423726</v>
@@ -6173,10 +6173,10 @@
         <v>1.770783550118297</v>
       </c>
       <c r="AB57" t="n">
-        <v>35.1443137411859</v>
+        <v>35.14431373880787</v>
       </c>
       <c r="AC57" t="n">
-        <v>2.336195781271755e-08</v>
+        <v>2.336195792373985e-08</v>
       </c>
       <c r="AD57" t="inlineStr">
         <is>
@@ -6184,10 +6184,10 @@
         </is>
       </c>
       <c r="AE57" t="n">
-        <v>1.836320042610168</v>
+        <v>-0.9901078939437866</v>
       </c>
       <c r="AF57" t="n">
-        <v>9.430356025695801</v>
+        <v>7.592193603515625</v>
       </c>
     </row>
     <row r="58">
@@ -6273,7 +6273,7 @@
         <v>1.874919214437808</v>
       </c>
       <c r="AB58" t="n">
-        <v>74.87374023016351</v>
+        <v>74.87374022851702</v>
       </c>
       <c r="AC58" t="n">
         <v>0</v>
@@ -6284,10 +6284,10 @@
         </is>
       </c>
       <c r="AE58" t="n">
-        <v>2.165559768676758</v>
+        <v>-0.7111413478851318</v>
       </c>
       <c r="AF58" t="n">
-        <v>9.352242469787598</v>
+        <v>7.575758934020996</v>
       </c>
     </row>
     <row r="59">
@@ -6373,10 +6373,10 @@
         <v>1.257111884835559</v>
       </c>
       <c r="AB59" t="n">
-        <v>10.94363022838587</v>
+        <v>10.94363023693902</v>
       </c>
       <c r="AC59" t="n">
-        <v>0.004203595223787882</v>
+        <v>0.004203595205810928</v>
       </c>
       <c r="AD59" t="inlineStr">
         <is>
@@ -6384,10 +6384,10 @@
         </is>
       </c>
       <c r="AE59" t="n">
-        <v>-0.4497647881507874</v>
+        <v>-3.121508121490479</v>
       </c>
       <c r="AF59" t="n">
-        <v>9.325095176696777</v>
+        <v>7.16084623336792</v>
       </c>
     </row>
     <row r="60">
@@ -6449,10 +6449,10 @@
         <v>0</v>
       </c>
       <c r="T60" t="n">
-        <v>0.008384986032816937</v>
+        <v>0.008384986032816942</v>
       </c>
       <c r="U60" t="n">
-        <v>1802.148573118087</v>
+        <v>1802.148573118088</v>
       </c>
       <c r="V60" t="n">
         <v>116.5216306197396</v>
@@ -6473,10 +6473,10 @@
         <v>1.291995277657361</v>
       </c>
       <c r="AB60" t="n">
-        <v>9.80622347020447</v>
+        <v>9.806223478696044</v>
       </c>
       <c r="AC60" t="n">
-        <v>0.007423447291867169</v>
+        <v>0.007423447260348826</v>
       </c>
       <c r="AD60" t="inlineStr">
         <is>
@@ -6484,10 +6484,10 @@
         </is>
       </c>
       <c r="AE60" t="n">
-        <v>-0.292354017496109</v>
+        <v>-3.036810636520386</v>
       </c>
       <c r="AF60" t="n">
-        <v>9.210403442382812</v>
+        <v>7.214388847351074</v>
       </c>
     </row>
     <row r="61">
@@ -6558,7 +6558,7 @@
         <v>125.7638995629434</v>
       </c>
       <c r="W61" t="n">
-        <v>-3.815018955229055</v>
+        <v>-3.815018955229054</v>
       </c>
       <c r="X61" t="n">
         <v>1.99785389706251</v>
@@ -6573,10 +6573,10 @@
         <v>1.344226957979696</v>
       </c>
       <c r="AB61" t="n">
-        <v>8.521771904637287</v>
+        <v>8.521771911976806</v>
       </c>
       <c r="AC61" t="n">
-        <v>0.0141097962643415</v>
+        <v>0.01410979621256203</v>
       </c>
       <c r="AD61" t="inlineStr">
         <is>
@@ -6584,10 +6584,10 @@
         </is>
       </c>
       <c r="AE61" t="n">
-        <v>-0.08102384954690933</v>
+        <v>-2.780515432357788</v>
       </c>
       <c r="AF61" t="n">
-        <v>9.171280860900879</v>
+        <v>7.169410228729248</v>
       </c>
     </row>
     <row r="62">
@@ -6649,7 +6649,7 @@
         <v>0</v>
       </c>
       <c r="T62" t="n">
-        <v>0.01174873452414175</v>
+        <v>0.01174873452414173</v>
       </c>
       <c r="U62" t="n">
         <v>1819.333862307396</v>
@@ -6658,25 +6658,25 @@
         <v>133.768939192973</v>
       </c>
       <c r="W62" t="n">
-        <v>-4.216226695607755</v>
+        <v>-4.216226695607757</v>
       </c>
       <c r="X62" t="n">
         <v>2.236641780729235</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.07785768910493722</v>
+        <v>0.07785768910493723</v>
       </c>
       <c r="Z62" t="n">
-        <v>8.528321940023904</v>
+        <v>8.528321940023906</v>
       </c>
       <c r="AA62" t="n">
         <v>1.39133283844068</v>
       </c>
       <c r="AB62" t="n">
-        <v>8.116398647344402</v>
+        <v>8.116398653510165</v>
       </c>
       <c r="AC62" t="n">
-        <v>0.01728010699695126</v>
+        <v>0.01728010694367876</v>
       </c>
       <c r="AD62" t="inlineStr">
         <is>
@@ -6684,10 +6684,10 @@
         </is>
       </c>
       <c r="AE62" t="n">
-        <v>0.179001584649086</v>
+        <v>-2.533034086227417</v>
       </c>
       <c r="AF62" t="n">
-        <v>9.021595001220703</v>
+        <v>7.203195571899414</v>
       </c>
     </row>
     <row r="63">
@@ -6752,7 +6752,7 @@
         <v>0.0144858494561258</v>
       </c>
       <c r="U63" t="n">
-        <v>1831.237971787175</v>
+        <v>1831.237971787176</v>
       </c>
       <c r="V63" t="n">
         <v>145.1006768504383</v>
@@ -6773,10 +6773,10 @@
         <v>1.47494070944119</v>
       </c>
       <c r="AB63" t="n">
-        <v>9.895594369570414</v>
+        <v>9.895594374405324</v>
       </c>
       <c r="AC63" t="n">
-        <v>0.007099029568388149</v>
+        <v>0.007099029551226543</v>
       </c>
       <c r="AD63" t="inlineStr">
         <is>
@@ -6784,10 +6784,10 @@
         </is>
       </c>
       <c r="AE63" t="n">
-        <v>0.5757450461387634</v>
+        <v>-2.139732360839844</v>
       </c>
       <c r="AF63" t="n">
-        <v>9.080600738525391</v>
+        <v>7.368199348449707</v>
       </c>
     </row>
     <row r="64">
@@ -6852,16 +6852,16 @@
         <v>0.0171057748099153</v>
       </c>
       <c r="U64" t="n">
-        <v>1847.282242523308</v>
+        <v>1847.282242523307</v>
       </c>
       <c r="V64" t="n">
         <v>158.5146067313444</v>
       </c>
       <c r="W64" t="n">
-        <v>-5.942931048174592</v>
+        <v>-5.942931048174591</v>
       </c>
       <c r="X64" t="n">
-        <v>3.015554825671704</v>
+        <v>3.015554825671705</v>
       </c>
       <c r="Y64" t="n">
         <v>0.09111327542057475</v>
@@ -6873,10 +6873,10 @@
         <v>1.57026622705338</v>
       </c>
       <c r="AB64" t="n">
-        <v>15.32755852506873</v>
+        <v>15.32755852881343</v>
       </c>
       <c r="AC64" t="n">
-        <v>0.0004695295779205688</v>
+        <v>0.0004695295770414942</v>
       </c>
       <c r="AD64" t="inlineStr">
         <is>
@@ -6884,10 +6884,10 @@
         </is>
       </c>
       <c r="AE64" t="n">
-        <v>1.019277811050415</v>
+        <v>-1.730671644210815</v>
       </c>
       <c r="AF64" t="n">
-        <v>9.193111419677734</v>
+        <v>7.437843322753906</v>
       </c>
     </row>
     <row r="65">
@@ -6949,19 +6949,19 @@
         <v>0</v>
       </c>
       <c r="T65" t="n">
-        <v>0.02028029107249053</v>
+        <v>0.02028029107249054</v>
       </c>
       <c r="U65" t="n">
-        <v>1866.213199387028</v>
+        <v>1866.213199387029</v>
       </c>
       <c r="V65" t="n">
         <v>172.428688213657</v>
       </c>
       <c r="W65" t="n">
-        <v>-7.321867963348669</v>
+        <v>-7.32186796334867</v>
       </c>
       <c r="X65" t="n">
-        <v>3.505362499811747</v>
+        <v>3.505362499811748</v>
       </c>
       <c r="Y65" t="n">
         <v>0.09925616978069154</v>
@@ -6973,7 +6973,7 @@
         <v>1.693277583234823</v>
       </c>
       <c r="AB65" t="n">
-        <v>32.55761405700993</v>
+        <v>32.55761405786819</v>
       </c>
       <c r="AC65" t="n">
         <v>8.515378080442559e-08</v>
@@ -6984,10 +6984,10 @@
         </is>
       </c>
       <c r="AE65" t="n">
-        <v>1.615426421165466</v>
+        <v>-1.204344868659973</v>
       </c>
       <c r="AF65" t="n">
-        <v>9.334855079650879</v>
+        <v>7.555476665496826</v>
       </c>
     </row>
     <row r="66">
@@ -7052,19 +7052,19 @@
         <v>0.008094941929136089</v>
       </c>
       <c r="U66" t="n">
-        <v>1803.065062095972</v>
+        <v>1803.065062095973</v>
       </c>
       <c r="V66" t="n">
         <v>105.865055616446</v>
       </c>
       <c r="W66" t="n">
-        <v>-3.035920942155326</v>
+        <v>-3.035920942155328</v>
       </c>
       <c r="X66" t="n">
-        <v>1.534616405860435</v>
+        <v>1.534616405860436</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.06391158313549024</v>
+        <v>0.06391158313549025</v>
       </c>
       <c r="Z66" t="n">
         <v>8.611481637450535</v>
@@ -7073,10 +7073,10 @@
         <v>1.212817224831085</v>
       </c>
       <c r="AB66" t="n">
-        <v>11.98913674102144</v>
+        <v>11.98913674921673</v>
       </c>
       <c r="AC66" t="n">
-        <v>0.002492252471193557</v>
+        <v>0.00249225246098117</v>
       </c>
       <c r="AD66" t="inlineStr">
         <is>
@@ -7084,10 +7084,10 @@
         </is>
       </c>
       <c r="AE66" t="n">
-        <v>-0.06960289180278778</v>
+        <v>-2.910566329956055</v>
       </c>
       <c r="AF66" t="n">
-        <v>9.111120223999023</v>
+        <v>7.328648567199707</v>
       </c>
     </row>
     <row r="67">
@@ -7149,7 +7149,7 @@
         <v>0</v>
       </c>
       <c r="T67" t="n">
-        <v>0.009835056787021467</v>
+        <v>0.009835056787021469</v>
       </c>
       <c r="U67" t="n">
         <v>1809.826507441956</v>
@@ -7173,10 +7173,10 @@
         <v>1.256868418005553</v>
       </c>
       <c r="AB67" t="n">
-        <v>10.78208738252993</v>
+        <v>10.78208739013764</v>
       </c>
       <c r="AC67" t="n">
-        <v>0.004557214527808662</v>
+        <v>0.00455721451047375</v>
       </c>
       <c r="AD67" t="inlineStr">
         <is>
@@ -7184,10 +7184,10 @@
         </is>
       </c>
       <c r="AE67" t="n">
-        <v>0.05223849788308144</v>
+        <v>-2.750080823898315</v>
       </c>
       <c r="AF67" t="n">
-        <v>9.043374061584473</v>
+        <v>7.288101196289062</v>
       </c>
     </row>
     <row r="68">
@@ -7258,7 +7258,7 @@
         <v>123.1094484623871</v>
       </c>
       <c r="W68" t="n">
-        <v>-3.810612724260528</v>
+        <v>-3.81061272426053</v>
       </c>
       <c r="X68" t="n">
         <v>2.055573873248151</v>
@@ -7273,10 +7273,10 @@
         <v>1.311634526868541</v>
       </c>
       <c r="AB68" t="n">
-        <v>10.18434250900642</v>
+        <v>10.18434251537477</v>
       </c>
       <c r="AC68" t="n">
-        <v>0.006144663763776648</v>
+        <v>0.006144663744210965</v>
       </c>
       <c r="AD68" t="inlineStr">
         <is>
@@ -7284,10 +7284,10 @@
         </is>
       </c>
       <c r="AE68" t="n">
-        <v>0.2421319186687469</v>
+        <v>-2.502010583877563</v>
       </c>
       <c r="AF68" t="n">
-        <v>8.940948486328125</v>
+        <v>7.40820837020874</v>
       </c>
     </row>
     <row r="69">
@@ -7349,7 +7349,7 @@
         <v>0</v>
       </c>
       <c r="T69" t="n">
-        <v>0.01401347287902443</v>
+        <v>0.01401347287902438</v>
       </c>
       <c r="U69" t="n">
         <v>1827.976410804391</v>
@@ -7358,25 +7358,25 @@
         <v>134.7759155198548</v>
       </c>
       <c r="W69" t="n">
-        <v>-4.447296024796837</v>
+        <v>-4.447296024796836</v>
       </c>
       <c r="X69" t="n">
-        <v>2.370016088240882</v>
+        <v>2.370016088240881</v>
       </c>
       <c r="Y69" t="n">
         <v>0.07827521299886665</v>
       </c>
       <c r="Z69" t="n">
-        <v>8.350610399426497</v>
+        <v>8.350610399426499</v>
       </c>
       <c r="AA69" t="n">
         <v>1.386573576065322</v>
       </c>
       <c r="AB69" t="n">
-        <v>10.91029662450183</v>
+        <v>10.91029662977611</v>
       </c>
       <c r="AC69" t="n">
-        <v>0.004274242812128626</v>
+        <v>0.004274242800856864</v>
       </c>
       <c r="AD69" t="inlineStr">
         <is>
@@ -7384,10 +7384,10 @@
         </is>
       </c>
       <c r="AE69" t="n">
-        <v>0.3883366286754608</v>
+        <v>-2.287543535232544</v>
       </c>
       <c r="AF69" t="n">
-        <v>8.99311351776123</v>
+        <v>7.369012832641602</v>
       </c>
     </row>
     <row r="70">
@@ -7449,34 +7449,34 @@
         <v>0</v>
       </c>
       <c r="T70" t="n">
-        <v>0.01673090512309465</v>
+        <v>0.01673090512309462</v>
       </c>
       <c r="U70" t="n">
-        <v>1841.240482974365</v>
+        <v>1841.240482974366</v>
       </c>
       <c r="V70" t="n">
         <v>148.9821337428867</v>
       </c>
       <c r="W70" t="n">
-        <v>-5.437576013614736</v>
+        <v>-5.43757601361474</v>
       </c>
       <c r="X70" t="n">
-        <v>2.78229407838722</v>
+        <v>2.782294078387221</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.08603840074667476</v>
+        <v>0.08603840074667479</v>
       </c>
       <c r="Z70" t="n">
-        <v>8.238582347543923</v>
+        <v>8.238582347543927</v>
       </c>
       <c r="AA70" t="n">
         <v>1.496411259435297</v>
       </c>
       <c r="AB70" t="n">
-        <v>15.47515428368674</v>
+        <v>15.47515428868447</v>
       </c>
       <c r="AC70" t="n">
-        <v>0.0004361269698127668</v>
+        <v>0.0004361269687228608</v>
       </c>
       <c r="AD70" t="inlineStr">
         <is>
@@ -7484,10 +7484,10 @@
         </is>
       </c>
       <c r="AE70" t="n">
-        <v>0.9086022973060608</v>
+        <v>-1.950588345527649</v>
       </c>
       <c r="AF70" t="n">
-        <v>9.085213661193848</v>
+        <v>7.522679805755615</v>
       </c>
     </row>
   </sheetData>

--- a/02_Dataset_EDA_Feature_UMAP_Mahalanobis/"distance" from new FeCrNiCoV data
to corrosion dataset.xlsx
+++ b/02_Dataset_EDA_Feature_UMAP_Mahalanobis/"distance" from new FeCrNiCoV data
to corrosion dataset.xlsx
@@ -673,10 +673,10 @@
         <v>1.854883648133144</v>
       </c>
       <c r="AB2" t="n">
-        <v>14.22472193853854</v>
+        <v>14.22472195865048</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0008149686030999304</v>
+        <v>0.0008149685949045971</v>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
@@ -684,10 +684,10 @@
         </is>
       </c>
       <c r="AE2" t="n">
-        <v>-1.826210498809814</v>
+        <v>1.448436975479126</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.927961349487305</v>
+        <v>5.986886978149414</v>
       </c>
     </row>
     <row r="3">
@@ -773,10 +773,10 @@
         <v>1.86699756583838</v>
       </c>
       <c r="AB3" t="n">
-        <v>14.07362742069533</v>
+        <v>14.07362744446151</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.0008789226073969703</v>
+        <v>0.0008789225969526582</v>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
@@ -784,10 +784,10 @@
         </is>
       </c>
       <c r="AE3" t="n">
-        <v>-1.655597805976868</v>
+        <v>1.565544843673706</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.976351737976074</v>
+        <v>6.153024196624756</v>
       </c>
     </row>
     <row r="4">
@@ -873,10 +873,10 @@
         <v>1.860835719820994</v>
       </c>
       <c r="AB4" t="n">
-        <v>13.69858840814431</v>
+        <v>13.6985884374772</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.001060203716366281</v>
+        <v>0.001060203700816831</v>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
@@ -884,10 +884,10 @@
         </is>
       </c>
       <c r="AE4" t="n">
-        <v>-1.573946118354797</v>
+        <v>1.407618999481201</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.944216728210449</v>
+        <v>6.222729682922363</v>
       </c>
     </row>
     <row r="5">
@@ -973,10 +973,10 @@
         <v>1.855466976740344</v>
       </c>
       <c r="AB5" t="n">
-        <v>15.97939216285558</v>
+        <v>15.97939221978394</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.0003389370769842914</v>
+        <v>0.0003389370673367864</v>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
@@ -984,10 +984,10 @@
         </is>
       </c>
       <c r="AE5" t="n">
-        <v>-1.334580421447754</v>
+        <v>1.482919692993164</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.08090877532959</v>
+        <v>6.477166175842285</v>
       </c>
     </row>
     <row r="6">
@@ -1073,10 +1073,10 @@
         <v>1.846723059137253</v>
       </c>
       <c r="AB6" t="n">
-        <v>22.53156804392996</v>
+        <v>22.53156815408171</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.280360197963848e-05</v>
+        <v>1.280360127453584e-05</v>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="AE6" t="n">
-        <v>-1.299319624900818</v>
+        <v>1.42179548740387</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.279312133789062</v>
+        <v>6.632607460021973</v>
       </c>
     </row>
     <row r="7">
@@ -1173,10 +1173,10 @@
         <v>1.750890315651342</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.93110196454591</v>
+        <v>9.93110198290098</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.006974107040951694</v>
+        <v>0.006974106976946559</v>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
@@ -1184,10 +1184,10 @@
         </is>
       </c>
       <c r="AE7" t="n">
-        <v>-2.395350694656372</v>
+        <v>0.9697780013084412</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.996040344238281</v>
+        <v>5.618061542510986</v>
       </c>
     </row>
     <row r="8">
@@ -1273,10 +1273,10 @@
         <v>1.783668816170993</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.740072924273413</v>
+        <v>9.740072944885055</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.007673085505702115</v>
+        <v>0.007673085426624704</v>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
@@ -1284,10 +1284,10 @@
         </is>
       </c>
       <c r="AE8" t="n">
-        <v>-2.03663444519043</v>
+        <v>1.265334844589233</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.018982887268066</v>
+        <v>5.840639114379883</v>
       </c>
     </row>
     <row r="9">
@@ -1373,10 +1373,10 @@
         <v>1.810259609945069</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.503543263160198</v>
+        <v>9.503543281681591</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.008636381156107542</v>
+        <v>0.00863638107612863</v>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
@@ -1384,10 +1384,10 @@
         </is>
       </c>
       <c r="AE9" t="n">
-        <v>-1.856128573417664</v>
+        <v>1.287466049194336</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.033317565917969</v>
+        <v>6.06306791305542</v>
       </c>
     </row>
     <row r="10">
@@ -1473,10 +1473,10 @@
         <v>1.821423299585024</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.659157619879242</v>
+        <v>9.659157649549439</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.007989885817837883</v>
+        <v>0.007989885699307142</v>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="AE10" t="n">
-        <v>-1.660050988197327</v>
+        <v>1.217727303504944</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.128454208374023</v>
+        <v>6.189106464385986</v>
       </c>
     </row>
     <row r="11">
@@ -1573,10 +1573,10 @@
         <v>1.835044455810978</v>
       </c>
       <c r="AB11" t="n">
-        <v>11.72097765120547</v>
+        <v>11.72097769000293</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.002849850262365394</v>
+        <v>0.00284985020708195</v>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
@@ -1584,10 +1584,10 @@
         </is>
       </c>
       <c r="AE11" t="n">
-        <v>-1.462382316589355</v>
+        <v>1.363960266113281</v>
       </c>
       <c r="AF11" t="n">
-        <v>6.145523071289062</v>
+        <v>6.530431747436523</v>
       </c>
     </row>
     <row r="12">
@@ -1673,10 +1673,10 @@
         <v>1.845065614118694</v>
       </c>
       <c r="AB12" t="n">
-        <v>17.37872542268221</v>
+        <v>17.37872548728874</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.0001683672906038769</v>
+        <v>0.0001683672851651163</v>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
@@ -1684,10 +1684,10 @@
         </is>
       </c>
       <c r="AE12" t="n">
-        <v>-1.23288893699646</v>
+        <v>1.320677518844604</v>
       </c>
       <c r="AF12" t="n">
-        <v>6.372019290924072</v>
+        <v>6.827459335327148</v>
       </c>
     </row>
     <row r="13">
@@ -1773,10 +1773,10 @@
         <v>1.86951759811025</v>
       </c>
       <c r="AB13" t="n">
-        <v>30.04773441044285</v>
+        <v>30.04773450558159</v>
       </c>
       <c r="AC13" t="n">
-        <v>2.98687725663882e-07</v>
+        <v>2.986877114530273e-07</v>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
@@ -1784,10 +1784,10 @@
         </is>
       </c>
       <c r="AE13" t="n">
-        <v>-1.06463360786438</v>
+        <v>1.240376830101013</v>
       </c>
       <c r="AF13" t="n">
-        <v>6.705539703369141</v>
+        <v>7.127925395965576</v>
       </c>
     </row>
     <row r="14">
@@ -1873,10 +1873,10 @@
         <v>1.561750253790709</v>
       </c>
       <c r="AB14" t="n">
-        <v>8.540019651308192</v>
+        <v>8.540019659802995</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.01398164577384831</v>
+        <v>0.0139816457144627</v>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
@@ -1884,10 +1884,10 @@
         </is>
       </c>
       <c r="AE14" t="n">
-        <v>-3.905462265014648</v>
+        <v>0.1595151871442795</v>
       </c>
       <c r="AF14" t="n">
-        <v>5.576428413391113</v>
+        <v>4.566577911376953</v>
       </c>
     </row>
     <row r="15">
@@ -1973,10 +1973,10 @@
         <v>1.638625076837699</v>
       </c>
       <c r="AB15" t="n">
-        <v>7.477603272665036</v>
+        <v>7.477603287985064</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.02378258624860896</v>
+        <v>0.02378258606643402</v>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
@@ -1984,10 +1984,10 @@
         </is>
       </c>
       <c r="AE15" t="n">
-        <v>-3.10212254524231</v>
+        <v>0.5772117972373962</v>
       </c>
       <c r="AF15" t="n">
-        <v>5.96085786819458</v>
+        <v>5.229785442352295</v>
       </c>
     </row>
     <row r="16">
@@ -2073,10 +2073,10 @@
         <v>1.692022026540553</v>
       </c>
       <c r="AB16" t="n">
-        <v>6.82512400205907</v>
+        <v>6.825124016263353</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.03295665713268903</v>
+        <v>0.03295665689862615</v>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
@@ -2084,10 +2084,10 @@
         </is>
       </c>
       <c r="AE16" t="n">
-        <v>-2.583569526672363</v>
+        <v>0.8253679275512695</v>
       </c>
       <c r="AF16" t="n">
-        <v>6.061807155609131</v>
+        <v>5.610726833343506</v>
       </c>
     </row>
     <row r="17">
@@ -2173,10 +2173,10 @@
         <v>1.743724699764247</v>
       </c>
       <c r="AB17" t="n">
-        <v>6.574103382770994</v>
+        <v>6.574103399228878</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.03736384731554065</v>
+        <v>0.03736384700807571</v>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
@@ -2184,10 +2184,10 @@
         </is>
       </c>
       <c r="AE17" t="n">
-        <v>-2.246909618377686</v>
+        <v>0.9739424586296082</v>
       </c>
       <c r="AF17" t="n">
-        <v>6.132374286651611</v>
+        <v>5.868922710418701</v>
       </c>
     </row>
     <row r="18">
@@ -2273,10 +2273,10 @@
         <v>1.76729345111992</v>
       </c>
       <c r="AB18" t="n">
-        <v>6.819348119072848</v>
+        <v>6.819348137513702</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.03305197159534734</v>
+        <v>0.03305197129059401</v>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
@@ -2284,10 +2284,10 @@
         </is>
       </c>
       <c r="AE18" t="n">
-        <v>-1.955901265144348</v>
+        <v>1.018189072608948</v>
       </c>
       <c r="AF18" t="n">
-        <v>6.318672180175781</v>
+        <v>6.220582008361816</v>
       </c>
     </row>
     <row r="19">
@@ -2373,10 +2373,10 @@
         <v>1.806421150658787</v>
       </c>
       <c r="AB19" t="n">
-        <v>9.429218563977182</v>
+        <v>9.429218587680353</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.008963367531929167</v>
+        <v>0.008963367425699142</v>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
@@ -2384,10 +2384,10 @@
         </is>
       </c>
       <c r="AE19" t="n">
-        <v>-1.50102686882019</v>
+        <v>1.026954889297485</v>
       </c>
       <c r="AF19" t="n">
-        <v>6.415609836578369</v>
+        <v>6.623205184936523</v>
       </c>
     </row>
     <row r="20">
@@ -2473,10 +2473,10 @@
         <v>1.835182866771414</v>
       </c>
       <c r="AB20" t="n">
-        <v>15.14641182224884</v>
+        <v>15.146411857122</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.0005140418317338691</v>
+        <v>0.0005140418227707055</v>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
@@ -2484,10 +2484,10 @@
         </is>
       </c>
       <c r="AE20" t="n">
-        <v>-1.246353626251221</v>
+        <v>1.120598793029785</v>
       </c>
       <c r="AF20" t="n">
-        <v>6.690250873565674</v>
+        <v>7.009326457977295</v>
       </c>
     </row>
     <row r="21">
@@ -2573,10 +2573,10 @@
         <v>1.87334037985938</v>
       </c>
       <c r="AB21" t="n">
-        <v>28.48756633026337</v>
+        <v>28.48756637614794</v>
       </c>
       <c r="AC21" t="n">
-        <v>6.516337505146907e-07</v>
+        <v>6.516337356377022e-07</v>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
@@ -2584,10 +2584,10 @@
         </is>
       </c>
       <c r="AE21" t="n">
-        <v>-0.9912935495376587</v>
+        <v>1.14710009098053</v>
       </c>
       <c r="AF21" t="n">
-        <v>6.989710807800293</v>
+        <v>7.402275085449219</v>
       </c>
     </row>
     <row r="22">
@@ -2673,7 +2673,7 @@
         <v>1.927101311134161</v>
       </c>
       <c r="AB22" t="n">
-        <v>53.82731871306454</v>
+        <v>53.82731875471453</v>
       </c>
       <c r="AC22" t="n">
         <v>2.049027614248189e-12</v>
@@ -2684,10 +2684,10 @@
         </is>
       </c>
       <c r="AE22" t="n">
-        <v>-0.748228132724762</v>
+        <v>1.148972630500793</v>
       </c>
       <c r="AF22" t="n">
-        <v>7.332738399505615</v>
+        <v>7.839080333709717</v>
       </c>
     </row>
     <row r="23">
@@ -2773,10 +2773,10 @@
         <v>1.462526570850697</v>
       </c>
       <c r="AB23" t="n">
-        <v>8.688347462082655</v>
+        <v>8.68834746929339</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.01298223063155657</v>
+        <v>0.0129822305847509</v>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
@@ -2784,10 +2784,10 @@
         </is>
       </c>
       <c r="AE23" t="n">
-        <v>-3.526820421218872</v>
+        <v>-0.1439922004938126</v>
       </c>
       <c r="AF23" t="n">
-        <v>6.001575469970703</v>
+        <v>5.163097858428955</v>
       </c>
     </row>
     <row r="24">
@@ -2873,10 +2873,10 @@
         <v>1.541251999619234</v>
       </c>
       <c r="AB24" t="n">
-        <v>6.977422635574912</v>
+        <v>6.977422641923167</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.03054020343996167</v>
+        <v>0.03054020334302321</v>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
@@ -2884,10 +2884,10 @@
         </is>
       </c>
       <c r="AE24" t="n">
-        <v>-3.363183975219727</v>
+        <v>0.2256627380847931</v>
       </c>
       <c r="AF24" t="n">
-        <v>5.98909330368042</v>
+        <v>5.159304141998291</v>
       </c>
     </row>
     <row r="25">
@@ -2973,10 +2973,10 @@
         <v>1.599506567855235</v>
       </c>
       <c r="AB25" t="n">
-        <v>5.746287099568542</v>
+        <v>5.746287109105339</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.05652097053481731</v>
+        <v>0.05652097026530278</v>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
@@ -2984,10 +2984,10 @@
         </is>
       </c>
       <c r="AE25" t="n">
-        <v>-2.983209133148193</v>
+        <v>0.3791229426860809</v>
       </c>
       <c r="AF25" t="n">
-        <v>6.022379398345947</v>
+        <v>5.426104068756104</v>
       </c>
     </row>
     <row r="26">
@@ -3073,10 +3073,10 @@
         <v>1.655542093125456</v>
       </c>
       <c r="AB26" t="n">
-        <v>5.113729986973637</v>
+        <v>5.113730000644303</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.07754747159115183</v>
+        <v>0.07754747106108906</v>
       </c>
       <c r="AD26" t="inlineStr">
         <is>
@@ -3084,10 +3084,10 @@
         </is>
       </c>
       <c r="AE26" t="n">
-        <v>-2.563595294952393</v>
+        <v>0.6299235820770264</v>
       </c>
       <c r="AF26" t="n">
-        <v>6.233436107635498</v>
+        <v>5.80295467376709</v>
       </c>
     </row>
     <row r="27">
@@ -3173,10 +3173,10 @@
         <v>1.711073414995902</v>
       </c>
       <c r="AB27" t="n">
-        <v>5.654957704954214</v>
+        <v>5.654957716210959</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.0591618214853098</v>
+        <v>0.05916182115232504</v>
       </c>
       <c r="AD27" t="inlineStr">
         <is>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="AE27" t="n">
-        <v>-2.093513965606689</v>
+        <v>0.7117559313774109</v>
       </c>
       <c r="AF27" t="n">
-        <v>6.506091117858887</v>
+        <v>6.328783512115479</v>
       </c>
     </row>
     <row r="28">
@@ -3273,10 +3273,10 @@
         <v>1.75956979738066</v>
       </c>
       <c r="AB28" t="n">
-        <v>8.137445017418868</v>
+        <v>8.137445029743091</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.01709921866351694</v>
+        <v>0.01709921855814966</v>
       </c>
       <c r="AD28" t="inlineStr">
         <is>
@@ -3284,10 +3284,10 @@
         </is>
       </c>
       <c r="AE28" t="n">
-        <v>-1.685366272926331</v>
+        <v>0.8350648880004883</v>
       </c>
       <c r="AF28" t="n">
-        <v>6.630870819091797</v>
+        <v>6.727015972137451</v>
       </c>
     </row>
     <row r="29">
@@ -3373,10 +3373,10 @@
         <v>1.816323965305568</v>
       </c>
       <c r="AB29" t="n">
-        <v>15.51982406789057</v>
+        <v>15.51982408153739</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.0004264940960385655</v>
+        <v>0.0004264940931284489</v>
       </c>
       <c r="AD29" t="inlineStr">
         <is>
@@ -3384,10 +3384,10 @@
         </is>
       </c>
       <c r="AE29" t="n">
-        <v>-1.27141797542572</v>
+        <v>0.9533175826072693</v>
       </c>
       <c r="AF29" t="n">
-        <v>6.983670234680176</v>
+        <v>7.258996963500977</v>
       </c>
     </row>
     <row r="30">
@@ -3473,10 +3473,10 @@
         <v>1.880414202539238</v>
       </c>
       <c r="AB30" t="n">
-        <v>31.2913326268391</v>
+        <v>31.29133263477498</v>
       </c>
       <c r="AC30" t="n">
-        <v>1.603885844136954e-07</v>
+        <v>1.603885837475616e-07</v>
       </c>
       <c r="AD30" t="inlineStr">
         <is>
@@ -3484,10 +3484,10 @@
         </is>
       </c>
       <c r="AE30" t="n">
-        <v>-0.9073925018310547</v>
+        <v>1.117595434188843</v>
       </c>
       <c r="AF30" t="n">
-        <v>7.305084705352783</v>
+        <v>7.747937202453613</v>
       </c>
     </row>
     <row r="31">
@@ -3573,7 +3573,7 @@
         <v>1.93635772262265</v>
       </c>
       <c r="AB31" t="n">
-        <v>61.71031284829672</v>
+        <v>61.71031285451016</v>
       </c>
       <c r="AC31" t="n">
         <v>3.97459842815806e-14</v>
@@ -3584,10 +3584,10 @@
         </is>
       </c>
       <c r="AE31" t="n">
-        <v>-0.6105957627296448</v>
+        <v>1.027450203895569</v>
       </c>
       <c r="AF31" t="n">
-        <v>7.531809329986572</v>
+        <v>8.083578109741211</v>
       </c>
     </row>
     <row r="32">
@@ -3673,10 +3673,10 @@
         <v>1.380621884400646</v>
       </c>
       <c r="AB32" t="n">
-        <v>9.381292521703809</v>
+        <v>9.381292527634617</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.00918075107863392</v>
+        <v>0.009180751051409253</v>
       </c>
       <c r="AD32" t="inlineStr">
         <is>
@@ -3684,10 +3684,10 @@
         </is>
       </c>
       <c r="AE32" t="n">
-        <v>-3.295583724975586</v>
+        <v>-0.4066018462181091</v>
       </c>
       <c r="AF32" t="n">
-        <v>6.241862773895264</v>
+        <v>5.341883182525635</v>
       </c>
     </row>
     <row r="33">
@@ -3773,10 +3773,10 @@
         <v>1.458855759405878</v>
       </c>
       <c r="AB33" t="n">
-        <v>7.081077511918225</v>
+        <v>7.081077511316817</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.02899770018925663</v>
+        <v>0.02899770019797643</v>
       </c>
       <c r="AD33" t="inlineStr">
         <is>
@@ -3784,10 +3784,10 @@
         </is>
       </c>
       <c r="AE33" t="n">
-        <v>-3.438368320465088</v>
+        <v>-0.2240183353424072</v>
       </c>
       <c r="AF33" t="n">
-        <v>6.157576560974121</v>
+        <v>5.325440406799316</v>
       </c>
     </row>
     <row r="34">
@@ -3873,10 +3873,10 @@
         <v>1.519549263520379</v>
       </c>
       <c r="AB34" t="n">
-        <v>5.748065176295156</v>
+        <v>5.748065180723792</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.05647074355384518</v>
+        <v>0.05647074342880098</v>
       </c>
       <c r="AD34" t="inlineStr">
         <is>
@@ -3884,10 +3884,10 @@
         </is>
       </c>
       <c r="AE34" t="n">
-        <v>-3.237172842025757</v>
+        <v>0.01142206881195307</v>
       </c>
       <c r="AF34" t="n">
-        <v>6.326303958892822</v>
+        <v>5.527170181274414</v>
       </c>
     </row>
     <row r="35">
@@ -3973,10 +3973,10 @@
         <v>1.577594998629744</v>
       </c>
       <c r="AB35" t="n">
-        <v>4.931839739499972</v>
+        <v>4.931839745165907</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.08493068126365133</v>
+        <v>0.08493068102304546</v>
       </c>
       <c r="AD35" t="inlineStr">
         <is>
@@ -3984,10 +3984,10 @@
         </is>
       </c>
       <c r="AE35" t="n">
-        <v>-2.818334102630615</v>
+        <v>0.1934209614992142</v>
       </c>
       <c r="AF35" t="n">
-        <v>6.447525501251221</v>
+        <v>5.913045883178711</v>
       </c>
     </row>
     <row r="36">
@@ -4073,10 +4073,10 @@
         <v>1.642908185162571</v>
       </c>
       <c r="AB36" t="n">
-        <v>5.302471735631371</v>
+        <v>5.302471740935354</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.07056395143309424</v>
+        <v>0.07056395124595916</v>
       </c>
       <c r="AD36" t="inlineStr">
         <is>
@@ -4084,10 +4084,10 @@
         </is>
       </c>
       <c r="AE36" t="n">
-        <v>-2.354985237121582</v>
+        <v>0.3330166041851044</v>
       </c>
       <c r="AF36" t="n">
-        <v>6.715003490447998</v>
+        <v>6.334460258483887</v>
       </c>
     </row>
     <row r="37">
@@ -4173,10 +4173,10 @@
         <v>1.701199642985428</v>
       </c>
       <c r="AB37" t="n">
-        <v>8.039559952434692</v>
+        <v>8.039559960149685</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.01795691545334621</v>
+        <v>0.01795691538407751</v>
       </c>
       <c r="AD37" t="inlineStr">
         <is>
@@ -4184,10 +4184,10 @@
         </is>
       </c>
       <c r="AE37" t="n">
-        <v>-1.755476593971252</v>
+        <v>0.5839120149612427</v>
       </c>
       <c r="AF37" t="n">
-        <v>6.957754611968994</v>
+        <v>6.826303005218506</v>
       </c>
     </row>
     <row r="38">
@@ -4273,10 +4273,10 @@
         <v>1.76865331408857</v>
       </c>
       <c r="AB38" t="n">
-        <v>15.26017517796946</v>
+        <v>15.26017518502893</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.0004856183216618293</v>
+        <v>0.0004856183199476449</v>
       </c>
       <c r="AD38" t="inlineStr">
         <is>
@@ -4284,10 +4284,10 @@
         </is>
       </c>
       <c r="AE38" t="n">
-        <v>-1.359985709190369</v>
+        <v>0.755460798740387</v>
       </c>
       <c r="AF38" t="n">
-        <v>7.119399070739746</v>
+        <v>7.252737998962402</v>
       </c>
     </row>
     <row r="39">
@@ -4373,10 +4373,10 @@
         <v>1.854103709551148</v>
       </c>
       <c r="AB39" t="n">
-        <v>34.71008516978976</v>
+        <v>34.71008517216156</v>
       </c>
       <c r="AC39" t="n">
-        <v>2.902690776629413e-08</v>
+        <v>2.902690765527183e-08</v>
       </c>
       <c r="AD39" t="inlineStr">
         <is>
@@ -4384,10 +4384,10 @@
         </is>
       </c>
       <c r="AE39" t="n">
-        <v>-0.8464444875717163</v>
+        <v>1.111003279685974</v>
       </c>
       <c r="AF39" t="n">
-        <v>7.36490535736084</v>
+        <v>7.880680561065674</v>
       </c>
     </row>
     <row r="40">
@@ -4473,7 +4473,7 @@
         <v>1.92714942623951</v>
       </c>
       <c r="AB40" t="n">
-        <v>67.37676603454075</v>
+        <v>67.37676603478361</v>
       </c>
       <c r="AC40" t="n">
         <v>2.331468351712829e-15</v>
@@ -4484,10 +4484,10 @@
         </is>
       </c>
       <c r="AE40" t="n">
-        <v>-0.6077501773834229</v>
+        <v>1.132601380348206</v>
       </c>
       <c r="AF40" t="n">
-        <v>7.654106616973877</v>
+        <v>8.154211044311523</v>
       </c>
     </row>
     <row r="41">
@@ -4573,10 +4573,10 @@
         <v>1.316324609641298</v>
       </c>
       <c r="AB41" t="n">
-        <v>10.28146682300837</v>
+        <v>10.28146682356528</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.005853395191330324</v>
+        <v>0.005853395189700406</v>
       </c>
       <c r="AD41" t="inlineStr">
         <is>
@@ -4584,10 +4584,10 @@
         </is>
       </c>
       <c r="AE41" t="n">
-        <v>-3.200131893157959</v>
+        <v>-1.056822657585144</v>
       </c>
       <c r="AF41" t="n">
-        <v>5.506008148193359</v>
+        <v>5.407161712646484</v>
       </c>
     </row>
     <row r="42">
@@ -4673,10 +4673,10 @@
         <v>1.380448262440932</v>
       </c>
       <c r="AB42" t="n">
-        <v>8.073417208441118</v>
+        <v>8.073417203877375</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.01765548808595219</v>
+        <v>0.01765548812623974</v>
       </c>
       <c r="AD42" t="inlineStr">
         <is>
@@ -4684,10 +4684,10 @@
         </is>
       </c>
       <c r="AE42" t="n">
-        <v>-3.472674131393433</v>
+        <v>-0.5473269820213318</v>
       </c>
       <c r="AF42" t="n">
-        <v>6.410650253295898</v>
+        <v>5.575394153594971</v>
       </c>
     </row>
     <row r="43">
@@ -4773,10 +4773,10 @@
         <v>1.437625352181259</v>
       </c>
       <c r="AB43" t="n">
-        <v>6.572018141364481</v>
+        <v>6.57201814009936</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.03740282395169825</v>
+        <v>0.03740282397535777</v>
       </c>
       <c r="AD43" t="inlineStr">
         <is>
@@ -4784,10 +4784,10 @@
         </is>
       </c>
       <c r="AE43" t="n">
-        <v>-3.219001770019531</v>
+        <v>-0.2788173854351044</v>
       </c>
       <c r="AF43" t="n">
-        <v>6.554756164550781</v>
+        <v>5.845067977905273</v>
       </c>
     </row>
     <row r="44">
@@ -4873,10 +4873,10 @@
         <v>1.497675826014134</v>
       </c>
       <c r="AB44" t="n">
-        <v>5.524557104678455</v>
+        <v>5.524557104064155</v>
       </c>
       <c r="AC44" t="n">
-        <v>0.06314771892719961</v>
+        <v>0.06314771894659543</v>
       </c>
       <c r="AD44" t="inlineStr">
         <is>
@@ -4884,10 +4884,10 @@
         </is>
       </c>
       <c r="AE44" t="n">
-        <v>-2.847106218338013</v>
+        <v>-0.1094250231981277</v>
       </c>
       <c r="AF44" t="n">
-        <v>6.754755020141602</v>
+        <v>6.182117462158203</v>
       </c>
     </row>
     <row r="45">
@@ -4973,10 +4973,10 @@
         <v>1.558533015770604</v>
       </c>
       <c r="AB45" t="n">
-        <v>5.67703506519527</v>
+        <v>5.677035065691503</v>
       </c>
       <c r="AC45" t="n">
-        <v>0.05851234434281538</v>
+        <v>0.05851234432829744</v>
       </c>
       <c r="AD45" t="inlineStr">
         <is>
@@ -4984,10 +4984,10 @@
         </is>
       </c>
       <c r="AE45" t="n">
-        <v>-2.420461177825928</v>
+        <v>0.1135851666331291</v>
       </c>
       <c r="AF45" t="n">
-        <v>6.947429180145264</v>
+        <v>6.584229469299316</v>
       </c>
     </row>
     <row r="46">
@@ -5073,10 +5073,10 @@
         <v>1.641249905139774</v>
       </c>
       <c r="AB46" t="n">
-        <v>8.555270653247074</v>
+        <v>8.555270653183099</v>
       </c>
       <c r="AC46" t="n">
-        <v>0.01387543419336823</v>
+        <v>0.01387543419381199</v>
       </c>
       <c r="AD46" t="inlineStr">
         <is>
@@ -5084,10 +5084,10 @@
         </is>
       </c>
       <c r="AE46" t="n">
-        <v>-1.910552263259888</v>
+        <v>0.4040507078170776</v>
       </c>
       <c r="AF46" t="n">
-        <v>7.123561382293701</v>
+        <v>7.057461738586426</v>
       </c>
     </row>
     <row r="47">
@@ -5173,10 +5173,10 @@
         <v>1.714113191631074</v>
       </c>
       <c r="AB47" t="n">
-        <v>15.46625704581758</v>
+        <v>15.46625704623826</v>
       </c>
       <c r="AC47" t="n">
-        <v>0.0004380714544373054</v>
+        <v>0.0004380714543451569</v>
       </c>
       <c r="AD47" t="inlineStr">
         <is>
@@ -5184,10 +5184,10 @@
         </is>
       </c>
       <c r="AE47" t="n">
-        <v>-1.486903667449951</v>
+        <v>0.6285002827644348</v>
       </c>
       <c r="AF47" t="n">
-        <v>7.329180717468262</v>
+        <v>7.363792419433594</v>
       </c>
     </row>
     <row r="48">
@@ -5273,7 +5273,7 @@
         <v>1.820110306355468</v>
       </c>
       <c r="AB48" t="n">
-        <v>37.08622948056893</v>
+        <v>37.08622948460389</v>
       </c>
       <c r="AC48" t="n">
         <v>8.847642951614887e-09</v>
@@ -5284,10 +5284,10 @@
         </is>
       </c>
       <c r="AE48" t="n">
-        <v>-0.9581111073493958</v>
+        <v>1.007051110267639</v>
       </c>
       <c r="AF48" t="n">
-        <v>7.611342906951904</v>
+        <v>7.978857040405273</v>
       </c>
     </row>
     <row r="49">
@@ -5373,7 +5373,7 @@
         <v>1.914868691477184</v>
       </c>
       <c r="AB49" t="n">
-        <v>74.52930527105332</v>
+        <v>74.52930528804491</v>
       </c>
       <c r="AC49" t="n">
         <v>1.110223024625157e-16</v>
@@ -5384,10 +5384,10 @@
         </is>
       </c>
       <c r="AE49" t="n">
-        <v>-0.6822921633720398</v>
+        <v>1.033382534980774</v>
       </c>
       <c r="AF49" t="n">
-        <v>7.606175899505615</v>
+        <v>8.121416091918945</v>
       </c>
     </row>
     <row r="50">
@@ -5473,10 +5473,10 @@
         <v>1.276817161411238</v>
       </c>
       <c r="AB50" t="n">
-        <v>10.83295447696636</v>
+        <v>10.83295446829136</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.004442769932067159</v>
+        <v>0.004442769951337633</v>
       </c>
       <c r="AD50" t="inlineStr">
         <is>
@@ -5484,10 +5484,10 @@
         </is>
       </c>
       <c r="AE50" t="n">
-        <v>-3.464904308319092</v>
+        <v>-0.5742098093032837</v>
       </c>
       <c r="AF50" t="n">
-        <v>6.644131660461426</v>
+        <v>5.748656749725342</v>
       </c>
     </row>
     <row r="51">
@@ -5573,10 +5573,10 @@
         <v>1.323155177163384</v>
       </c>
       <c r="AB51" t="n">
-        <v>9.075693221535156</v>
+        <v>9.075693214762744</v>
       </c>
       <c r="AC51" t="n">
-        <v>0.010696415316789</v>
+        <v>0.01069641535300925</v>
       </c>
       <c r="AD51" t="inlineStr">
         <is>
@@ -5584,10 +5584,10 @@
         </is>
       </c>
       <c r="AE51" t="n">
-        <v>-3.20847487449646</v>
+        <v>-0.4520371854305267</v>
       </c>
       <c r="AF51" t="n">
-        <v>6.803773403167725</v>
+        <v>5.965620040893555</v>
       </c>
     </row>
     <row r="52">
@@ -5673,10 +5673,10 @@
         <v>1.357568245523672</v>
       </c>
       <c r="AB52" t="n">
-        <v>7.950381735496707</v>
+        <v>7.950381729764869</v>
       </c>
       <c r="AC52" t="n">
-        <v>0.01877571747374029</v>
+        <v>0.01877571752755003</v>
       </c>
       <c r="AD52" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         </is>
       </c>
       <c r="AE52" t="n">
-        <v>-3.15294885635376</v>
+        <v>-0.4213981032371521</v>
       </c>
       <c r="AF52" t="n">
-        <v>6.894915580749512</v>
+        <v>6.067948818206787</v>
       </c>
     </row>
     <row r="53">
@@ -5773,10 +5773,10 @@
         <v>1.413398103016241</v>
       </c>
       <c r="AB53" t="n">
-        <v>6.84815924690226</v>
+        <v>6.848159242433865</v>
       </c>
       <c r="AC53" t="n">
-        <v>0.03257925237437276</v>
+        <v>0.0325792524471612</v>
       </c>
       <c r="AD53" t="inlineStr">
         <is>
@@ -5784,10 +5784,10 @@
         </is>
       </c>
       <c r="AE53" t="n">
-        <v>-2.862911224365234</v>
+        <v>-0.3318018615245819</v>
       </c>
       <c r="AF53" t="n">
-        <v>6.981451511383057</v>
+        <v>6.435742855072021</v>
       </c>
     </row>
     <row r="54">
@@ -5873,10 +5873,10 @@
         <v>1.481049154564836</v>
       </c>
       <c r="AB54" t="n">
-        <v>6.733067572807402</v>
+        <v>6.73306756913035</v>
       </c>
       <c r="AC54" t="n">
-        <v>0.03450904600040527</v>
+        <v>0.03450904606385108</v>
       </c>
       <c r="AD54" t="inlineStr">
         <is>
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="AE54" t="n">
-        <v>-2.416910409927368</v>
+        <v>-0.1088833138346672</v>
       </c>
       <c r="AF54" t="n">
-        <v>7.122231006622314</v>
+        <v>6.76712703704834</v>
       </c>
     </row>
     <row r="55">
@@ -5973,10 +5973,10 @@
         <v>1.553559684143321</v>
       </c>
       <c r="AB55" t="n">
-        <v>8.841398641332527</v>
+        <v>8.841398638899703</v>
       </c>
       <c r="AC55" t="n">
-        <v>0.01202581943936565</v>
+        <v>0.01202581945399395</v>
       </c>
       <c r="AD55" t="inlineStr">
         <is>
@@ -5984,10 +5984,10 @@
         </is>
       </c>
       <c r="AE55" t="n">
-        <v>-2.066936254501343</v>
+        <v>0.1014297679066658</v>
       </c>
       <c r="AF55" t="n">
-        <v>7.263638973236084</v>
+        <v>7.04632043838501</v>
       </c>
     </row>
     <row r="56">
@@ -6073,10 +6073,10 @@
         <v>1.656063968330844</v>
       </c>
       <c r="AB56" t="n">
-        <v>16.42102428653704</v>
+        <v>16.42102428684876</v>
       </c>
       <c r="AC56" t="n">
-        <v>0.0002717814945776276</v>
+        <v>0.000271781494535217</v>
       </c>
       <c r="AD56" t="inlineStr">
         <is>
@@ -6084,10 +6084,10 @@
         </is>
       </c>
       <c r="AE56" t="n">
-        <v>-1.648178219795227</v>
+        <v>0.4606584012508392</v>
       </c>
       <c r="AF56" t="n">
-        <v>7.404623031616211</v>
+        <v>7.443541526794434</v>
       </c>
     </row>
     <row r="57">
@@ -6173,10 +6173,10 @@
         <v>1.770783550118297</v>
       </c>
       <c r="AB57" t="n">
-        <v>35.14431373880787</v>
+        <v>35.14431374627816</v>
       </c>
       <c r="AC57" t="n">
-        <v>2.336195792373985e-08</v>
+        <v>2.336195781271755e-08</v>
       </c>
       <c r="AD57" t="inlineStr">
         <is>
@@ -6184,10 +6184,10 @@
         </is>
       </c>
       <c r="AE57" t="n">
-        <v>-0.9901078939437866</v>
+        <v>0.9077197313308716</v>
       </c>
       <c r="AF57" t="n">
-        <v>7.592193603515625</v>
+        <v>7.842592716217041</v>
       </c>
     </row>
     <row r="58">
@@ -6273,7 +6273,7 @@
         <v>1.874919214437808</v>
       </c>
       <c r="AB58" t="n">
-        <v>74.87374022851702</v>
+        <v>74.87374025409831</v>
       </c>
       <c r="AC58" t="n">
         <v>0</v>
@@ -6284,10 +6284,10 @@
         </is>
       </c>
       <c r="AE58" t="n">
-        <v>-0.7111413478851318</v>
+        <v>0.9457850456237793</v>
       </c>
       <c r="AF58" t="n">
-        <v>7.575758934020996</v>
+        <v>8.164846420288086</v>
       </c>
     </row>
     <row r="59">
@@ -6373,10 +6373,10 @@
         <v>1.257111884835559</v>
       </c>
       <c r="AB59" t="n">
-        <v>10.94363023693902</v>
+        <v>10.94363022694053</v>
       </c>
       <c r="AC59" t="n">
-        <v>0.004203595205810928</v>
+        <v>0.004203595226825674</v>
       </c>
       <c r="AD59" t="inlineStr">
         <is>
@@ -6384,10 +6384,10 @@
         </is>
       </c>
       <c r="AE59" t="n">
-        <v>-3.121508121490479</v>
+        <v>-0.5934247970581055</v>
       </c>
       <c r="AF59" t="n">
-        <v>7.16084623336792</v>
+        <v>6.290301322937012</v>
       </c>
     </row>
     <row r="60">
@@ -6473,10 +6473,10 @@
         <v>1.291995277657361</v>
       </c>
       <c r="AB60" t="n">
-        <v>9.806223478696044</v>
+        <v>9.806223470647501</v>
       </c>
       <c r="AC60" t="n">
-        <v>0.007423447260348826</v>
+        <v>0.007423447290222818</v>
       </c>
       <c r="AD60" t="inlineStr">
         <is>
@@ -6484,10 +6484,10 @@
         </is>
       </c>
       <c r="AE60" t="n">
-        <v>-3.036810636520386</v>
+        <v>-0.4416285753250122</v>
       </c>
       <c r="AF60" t="n">
-        <v>7.214388847351074</v>
+        <v>6.434042930603027</v>
       </c>
     </row>
     <row r="61">
@@ -6573,10 +6573,10 @@
         <v>1.344226957979696</v>
       </c>
       <c r="AB61" t="n">
-        <v>8.521771911976806</v>
+        <v>8.521771904823751</v>
       </c>
       <c r="AC61" t="n">
-        <v>0.01410979621256203</v>
+        <v>0.01410979626302611</v>
       </c>
       <c r="AD61" t="inlineStr">
         <is>
@@ -6584,10 +6584,10 @@
         </is>
       </c>
       <c r="AE61" t="n">
-        <v>-2.780515432357788</v>
+        <v>-0.3479690849781036</v>
       </c>
       <c r="AF61" t="n">
-        <v>7.169410228729248</v>
+        <v>6.542584419250488</v>
       </c>
     </row>
     <row r="62">
@@ -6673,10 +6673,10 @@
         <v>1.39133283844068</v>
       </c>
       <c r="AB62" t="n">
-        <v>8.116398653510165</v>
+        <v>8.11639864648806</v>
       </c>
       <c r="AC62" t="n">
-        <v>0.01728010694367876</v>
+        <v>0.01728010700435012</v>
       </c>
       <c r="AD62" t="inlineStr">
         <is>
@@ -6684,10 +6684,10 @@
         </is>
       </c>
       <c r="AE62" t="n">
-        <v>-2.533034086227417</v>
+        <v>-0.3353989720344543</v>
       </c>
       <c r="AF62" t="n">
-        <v>7.203195571899414</v>
+        <v>6.836453437805176</v>
       </c>
     </row>
     <row r="63">
@@ -6773,10 +6773,10 @@
         <v>1.47494070944119</v>
       </c>
       <c r="AB63" t="n">
-        <v>9.895594374405324</v>
+        <v>9.895594369160055</v>
       </c>
       <c r="AC63" t="n">
-        <v>0.007099029551226543</v>
+        <v>0.007099029569844761</v>
       </c>
       <c r="AD63" t="inlineStr">
         <is>
@@ -6784,10 +6784,10 @@
         </is>
       </c>
       <c r="AE63" t="n">
-        <v>-2.139732360839844</v>
+        <v>-0.01832944341003895</v>
       </c>
       <c r="AF63" t="n">
-        <v>7.368199348449707</v>
+        <v>7.114097595214844</v>
       </c>
     </row>
     <row r="64">
@@ -6873,10 +6873,10 @@
         <v>1.57026622705338</v>
       </c>
       <c r="AB64" t="n">
-        <v>15.32755852881343</v>
+        <v>15.327558527143</v>
       </c>
       <c r="AC64" t="n">
-        <v>0.0004695295770414942</v>
+        <v>0.000469529577433625</v>
       </c>
       <c r="AD64" t="inlineStr">
         <is>
@@ -6884,10 +6884,10 @@
         </is>
       </c>
       <c r="AE64" t="n">
-        <v>-1.730671644210815</v>
+        <v>0.3254123628139496</v>
       </c>
       <c r="AF64" t="n">
-        <v>7.437843322753906</v>
+        <v>7.335958480834961</v>
       </c>
     </row>
     <row r="65">
@@ -6973,10 +6973,10 @@
         <v>1.693277583234823</v>
       </c>
       <c r="AB65" t="n">
-        <v>32.55761405786819</v>
+        <v>32.55761406535918</v>
       </c>
       <c r="AC65" t="n">
-        <v>8.515378080442559e-08</v>
+        <v>8.515378047135869e-08</v>
       </c>
       <c r="AD65" t="inlineStr">
         <is>
@@ -6984,10 +6984,10 @@
         </is>
       </c>
       <c r="AE65" t="n">
-        <v>-1.204344868659973</v>
+        <v>0.7341803312301636</v>
       </c>
       <c r="AF65" t="n">
-        <v>7.555476665496826</v>
+        <v>7.71480131149292</v>
       </c>
     </row>
     <row r="66">
@@ -7073,10 +7073,10 @@
         <v>1.212817224831085</v>
       </c>
       <c r="AB66" t="n">
-        <v>11.98913674921673</v>
+        <v>11.98913673890623</v>
       </c>
       <c r="AC66" t="n">
-        <v>0.00249225246098117</v>
+        <v>0.002492252473829337</v>
       </c>
       <c r="AD66" t="inlineStr">
         <is>
@@ -7084,10 +7084,10 @@
         </is>
       </c>
       <c r="AE66" t="n">
-        <v>-2.910566329956055</v>
+        <v>-0.4169232547283173</v>
       </c>
       <c r="AF66" t="n">
-        <v>7.328648567199707</v>
+        <v>6.666397094726562</v>
       </c>
     </row>
     <row r="67">
@@ -7173,10 +7173,10 @@
         <v>1.256868418005553</v>
       </c>
       <c r="AB67" t="n">
-        <v>10.78208739013764</v>
+        <v>10.7820873808603</v>
       </c>
       <c r="AC67" t="n">
-        <v>0.00455721451047375</v>
+        <v>0.004557214531613174</v>
       </c>
       <c r="AD67" t="inlineStr">
         <is>
@@ -7184,10 +7184,10 @@
         </is>
       </c>
       <c r="AE67" t="n">
-        <v>-2.750080823898315</v>
+        <v>-0.3251573741436005</v>
       </c>
       <c r="AF67" t="n">
-        <v>7.288101196289062</v>
+        <v>6.767315864562988</v>
       </c>
     </row>
     <row r="68">
@@ -7273,10 +7273,10 @@
         <v>1.311634526868541</v>
       </c>
       <c r="AB68" t="n">
-        <v>10.18434251537477</v>
+        <v>10.18434250740126</v>
       </c>
       <c r="AC68" t="n">
-        <v>0.006144663744210965</v>
+        <v>0.006144663768708258</v>
       </c>
       <c r="AD68" t="inlineStr">
         <is>
@@ -7284,10 +7284,10 @@
         </is>
       </c>
       <c r="AE68" t="n">
-        <v>-2.502010583877563</v>
+        <v>-0.2683905065059662</v>
       </c>
       <c r="AF68" t="n">
-        <v>7.40820837020874</v>
+        <v>6.952888011932373</v>
       </c>
     </row>
     <row r="69">
@@ -7373,10 +7373,10 @@
         <v>1.386573576065322</v>
       </c>
       <c r="AB69" t="n">
-        <v>10.91029662977611</v>
+        <v>10.91029662343764</v>
       </c>
       <c r="AC69" t="n">
-        <v>0.004274242800856864</v>
+        <v>0.004274242814402918</v>
       </c>
       <c r="AD69" t="inlineStr">
         <is>
@@ -7384,10 +7384,10 @@
         </is>
       </c>
       <c r="AE69" t="n">
-        <v>-2.287543535232544</v>
+        <v>-0.1885654330253601</v>
       </c>
       <c r="AF69" t="n">
-        <v>7.369012832641602</v>
+        <v>7.007810115814209</v>
       </c>
     </row>
     <row r="70">
@@ -7473,10 +7473,10 @@
         <v>1.496411259435297</v>
       </c>
       <c r="AB70" t="n">
-        <v>15.47515428868447</v>
+        <v>15.4751542860382</v>
       </c>
       <c r="AC70" t="n">
-        <v>0.0004361269687228608</v>
+        <v>0.0004361269692999548</v>
       </c>
       <c r="AD70" t="inlineStr">
         <is>
@@ -7484,10 +7484,10 @@
         </is>
       </c>
       <c r="AE70" t="n">
-        <v>-1.950588345527649</v>
+        <v>0.1985452771186829</v>
       </c>
       <c r="AF70" t="n">
-        <v>7.522679805755615</v>
+        <v>7.339662551879883</v>
       </c>
     </row>
   </sheetData>
